--- a/SolarApiLocations_Deliverable1.xlsx
+++ b/SolarApiLocations_Deliverable1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d353e6827118956a/addressToDistance/addressToExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/jelliott48_gatech_edu/Documents/Documents/Fall24/ECE 3600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5306CE8C-270E-4907-B109-A1CEB2ADFC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{5306CE8C-270E-4907-B109-A1CEB2ADFC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D12973-604E-D44B-B201-B1110FA48B0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="1200" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="366">
   <si>
     <t>Geocoding API</t>
   </si>
@@ -803,9 +803,6 @@
     <t>581 Metropolitan Pkwy SW, Atlanta, GA 30310</t>
   </si>
   <si>
-    <t>Slutty Vegan</t>
-  </si>
-  <si>
     <t>476 Edgewood Ave SE, Atlanta, GA 30312</t>
   </si>
   <si>
@@ -866,9 +863,6 @@
     <t>473 Broad St, Augusta, GA 30901</t>
   </si>
   <si>
-    <t>Sublime Doughnuts</t>
-  </si>
-  <si>
     <t>535 10th St NW, Atlanta, GA 30318</t>
   </si>
   <si>
@@ -1025,15 +1019,9 @@
     <t>12353 Veterans Memorial Highway, 6668 W Broad St, Douglasville, GA 30134</t>
   </si>
   <si>
-    <t>Toast on Lenox</t>
-  </si>
-  <si>
     <t>349 14th St NW, Atlanta, GA 30318</t>
   </si>
   <si>
-    <t>Toast On Lenox</t>
-  </si>
-  <si>
     <t>2770 Lenox Rd NE, Atlanta, GA 30324</t>
   </si>
   <si>
@@ -1128,6 +1116,24 @@
   </si>
   <si>
     <t>% Error Long</t>
+  </si>
+  <si>
+    <t>Slutty Vegan Edgewood</t>
+  </si>
+  <si>
+    <t>Slutty Vegan McDonough</t>
+  </si>
+  <si>
+    <t>Sublime Doughnuts 10th Street</t>
+  </si>
+  <si>
+    <t>Sublime Doughnuts Briarcliff</t>
+  </si>
+  <si>
+    <t>Toast on Lenox 14th Street</t>
+  </si>
+  <si>
+    <t>Toast On Lenox Lenox</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,16 +1510,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1534,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1547,16 +1554,16 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1576,19 +1583,19 @@
         <v>-84.411090000000002</v>
       </c>
       <c r="G3">
-        <f>ABS((C3-E3)/E3)*100</f>
+        <f t="shared" ref="G3:G34" si="0">ABS((C3-E3)/E3)*100</f>
         <v>6.399142850171121E-3</v>
       </c>
       <c r="H3">
-        <f>ABS((D3-F3)/F3)*100</f>
+        <f t="shared" ref="H3:H34" si="1">ABS((D3-F3)/F3)*100</f>
         <v>3.4035812118591132E-4</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(OR(G3 &gt; 0.1, H3 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I3:I34" si="2">IF(OR(G3 &gt; 0.1, H3 &gt; 0.1), "1", "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1608,19 +1615,19 @@
         <v>-84.396950000000004</v>
       </c>
       <c r="G4">
-        <f>ABS((C4-E4)/E4)*100</f>
+        <f t="shared" si="0"/>
         <v>3.2223135737674781E-3</v>
       </c>
       <c r="H4">
-        <f>ABS((D4-F4)/F4)*100</f>
+        <f t="shared" si="1"/>
         <v>5.5606274870334787E-4</v>
       </c>
       <c r="I4" t="str">
-        <f>IF(OR(G4 &gt; 0.1, H4 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1640,19 +1647,19 @@
         <v>-84.389430000000004</v>
       </c>
       <c r="G5">
-        <f>ABS((C5-E5)/E5)*100</f>
+        <f t="shared" si="0"/>
         <v>1.3023347406846474E-2</v>
       </c>
       <c r="H5">
-        <f>ABS((D5-F5)/F5)*100</f>
+        <f t="shared" si="1"/>
         <v>1.6331429184800396E-3</v>
       </c>
       <c r="I5" t="str">
-        <f>IF(OR(G5 &gt; 0.1, H5 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1672,19 +1679,19 @@
         <v>-84.597840000000005</v>
       </c>
       <c r="G6">
-        <f>ABS((C6-E6)/E6)*100</f>
+        <f t="shared" si="0"/>
         <v>2.2503612538638017E-3</v>
       </c>
       <c r="H6">
-        <f>ABS((D6-F6)/F6)*100</f>
+        <f t="shared" si="1"/>
         <v>3.7234993233930001E-4</v>
       </c>
       <c r="I6" t="str">
-        <f>IF(OR(G6 &gt; 0.1, H6 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1704,19 +1711,19 @@
         <v>-84.395300000000006</v>
       </c>
       <c r="G7">
-        <f>ABS((C7-E7)/E7)*100</f>
+        <f t="shared" si="0"/>
         <v>1.7384716672150656E-3</v>
       </c>
       <c r="H7">
-        <f>ABS((D7-F7)/F7)*100</f>
+        <f t="shared" si="1"/>
         <v>9.609539867895437E-4</v>
       </c>
       <c r="I7" t="str">
-        <f>IF(OR(G7 &gt; 0.1, H7 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1736,19 +1743,19 @@
         <v>-84.148480000000006</v>
       </c>
       <c r="G8">
-        <f>ABS((C8-E8)/E8)*100</f>
+        <f t="shared" si="0"/>
         <v>8.1620927501648791E-3</v>
       </c>
       <c r="H8">
-        <f>ABS((D8-F8)/F8)*100</f>
+        <f t="shared" si="1"/>
         <v>1.7370486074225304E-3</v>
       </c>
       <c r="I8" t="str">
-        <f>IF(OR(G8 &gt; 0.1, H8 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1768,19 +1775,19 @@
         <v>-84.414230000000003</v>
       </c>
       <c r="G9">
-        <f>ABS((C9-E9)/E9)*100</f>
+        <f t="shared" si="0"/>
         <v>0.125721255058515</v>
       </c>
       <c r="H9">
-        <f>ABS((D9-F9)/F9)*100</f>
+        <f t="shared" si="1"/>
         <v>3.0447473133391922E-2</v>
       </c>
       <c r="I9" t="str">
-        <f>IF(OR(G9 &gt; 0.1, H9 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1800,19 +1807,19 @@
         <v>-84.502260000000007</v>
       </c>
       <c r="G10">
-        <f>ABS((C10-E10)/E10)*100</f>
+        <f t="shared" si="0"/>
         <v>3.3503123855887734E-3</v>
       </c>
       <c r="H10">
-        <f>ABS((D10-F10)/F10)*100</f>
+        <f t="shared" si="1"/>
         <v>2.7727069074794082E-3</v>
       </c>
       <c r="I10" t="str">
-        <f>IF(OR(G10 &gt; 0.1, H10 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1832,19 +1839,19 @@
         <v>-84.414100000000005</v>
       </c>
       <c r="G11">
-        <f>ABS((C11-E11)/E11)*100</f>
+        <f t="shared" si="0"/>
         <v>1.0098708738067218E-3</v>
       </c>
       <c r="H11">
-        <f>ABS((D11-F11)/F11)*100</f>
+        <f t="shared" si="1"/>
         <v>2.2508088097441274E-5</v>
       </c>
       <c r="I11" t="str">
-        <f>IF(OR(G11 &gt; 0.1, H11 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1864,19 +1871,19 @@
         <v>-84.551079999999999</v>
       </c>
       <c r="G12">
-        <f>ABS((C12-E12)/E12)*100</f>
+        <f t="shared" si="0"/>
         <v>1.6091976365192732E-3</v>
       </c>
       <c r="H12">
-        <f>ABS((D12-F12)/F12)*100</f>
+        <f t="shared" si="1"/>
         <v>4.4860455952290085E-4</v>
       </c>
       <c r="I12" t="str">
-        <f>IF(OR(G12 &gt; 0.1, H12 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1896,19 +1903,19 @@
         <v>-84.511690000000002</v>
       </c>
       <c r="G13">
-        <f>ABS((C13-E13)/E13)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1614250332358188E-3</v>
       </c>
       <c r="H13">
-        <f>ABS((D13-F13)/F13)*100</f>
+        <f t="shared" si="1"/>
         <v>2.8043457656389123E-5</v>
       </c>
       <c r="I13" t="str">
-        <f>IF(OR(G13 &gt; 0.1, H13 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1928,19 +1935,19 @@
         <v>-84.365530000000007</v>
       </c>
       <c r="G14">
-        <f>ABS((C14-E14)/E14)*100</f>
+        <f t="shared" si="0"/>
         <v>3.2611328276397245E-3</v>
       </c>
       <c r="H14">
-        <f>ABS((D14-F14)/F14)*100</f>
+        <f t="shared" si="1"/>
         <v>3.2252508813664798E-4</v>
       </c>
       <c r="I14" t="str">
-        <f>IF(OR(G14 &gt; 0.1, H14 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1960,19 +1967,19 @@
         <v>-84.464089999999999</v>
       </c>
       <c r="G15">
-        <f>ABS((C15-E15)/E15)*100</f>
+        <f t="shared" si="0"/>
         <v>5.3463139344939892E-3</v>
       </c>
       <c r="H15">
-        <f>ABS((D15-F15)/F15)*100</f>
+        <f t="shared" si="1"/>
         <v>9.6964283874105279E-4</v>
       </c>
       <c r="I15" t="str">
-        <f>IF(OR(G15 &gt; 0.1, H15 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1992,19 +1999,19 @@
         <v>-84.357529999999997</v>
       </c>
       <c r="G16">
-        <f>ABS((C16-E16)/E16)*100</f>
+        <f t="shared" si="0"/>
         <v>6.0346337310936363E-3</v>
       </c>
       <c r="H16">
-        <f>ABS((D16-F16)/F16)*100</f>
+        <f t="shared" si="1"/>
         <v>1.0552703475322455E-3</v>
       </c>
       <c r="I16" t="str">
-        <f>IF(OR(G16 &gt; 0.1, H16 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2024,19 +2031,19 @@
         <v>-84.392849999999996</v>
       </c>
       <c r="G17">
-        <f>ABS((C17-E17)/E17)*100</f>
+        <f t="shared" si="0"/>
         <v>7.1221553156408223E-3</v>
       </c>
       <c r="H17">
-        <f>ABS((D17-F17)/F17)*100</f>
+        <f t="shared" si="1"/>
         <v>1.2364791567160427E-3</v>
       </c>
       <c r="I17" t="str">
-        <f>IF(OR(G17 &gt; 0.1, H17 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2056,19 +2063,19 @@
         <v>-84.347210000000004</v>
       </c>
       <c r="G18">
-        <f>ABS((C18-E18)/E18)*100</f>
+        <f t="shared" si="0"/>
         <v>9.9974187782023334E-3</v>
       </c>
       <c r="H18">
-        <f>ABS((D18-F18)/F18)*100</f>
+        <f t="shared" si="1"/>
         <v>3.8673478352573357E-4</v>
       </c>
       <c r="I18" t="str">
-        <f>IF(OR(G18 &gt; 0.1, H18 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2088,19 +2095,19 @@
         <v>-84.440759999999997</v>
       </c>
       <c r="G19">
-        <f>ABS((C19-E19)/E19)*100</f>
+        <f t="shared" si="0"/>
         <v>3.0593831680000481E-3</v>
       </c>
       <c r="H19">
-        <f>ABS((D19-F19)/F19)*100</f>
+        <f t="shared" si="1"/>
         <v>6.087107695497689E-4</v>
       </c>
       <c r="I19" t="str">
-        <f>IF(OR(G19 &gt; 0.1, H19 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2120,19 +2127,19 @@
         <v>-84.365840000000006</v>
       </c>
       <c r="G20">
-        <f>ABS((C20-E20)/E20)*100</f>
+        <f t="shared" si="0"/>
         <v>3.0489547688995641E-2</v>
       </c>
       <c r="H20">
-        <f>ABS((D20-F20)/F20)*100</f>
+        <f t="shared" si="1"/>
         <v>1.5661552116363053E-2</v>
       </c>
       <c r="I20" t="str">
-        <f>IF(OR(G20 &gt; 0.1, H20 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2152,19 +2159,19 @@
         <v>-84.379480000000001</v>
       </c>
       <c r="G21">
-        <f>ABS((C21-E21)/E21)*100</f>
+        <f t="shared" si="0"/>
         <v>1.3342034574423856E-3</v>
       </c>
       <c r="H21">
-        <f>ABS((D21-F21)/F21)*100</f>
+        <f t="shared" si="1"/>
         <v>8.6039876040666977E-5</v>
       </c>
       <c r="I21" t="str">
-        <f>IF(OR(G21 &gt; 0.1, H21 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2184,19 +2191,19 @@
         <v>-84.37885</v>
       </c>
       <c r="G22">
-        <f>ABS((C22-E22)/E22)*100</f>
+        <f t="shared" si="0"/>
         <v>1.3967328776582297E-3</v>
       </c>
       <c r="H22">
-        <f>ABS((D22-F22)/F22)*100</f>
+        <f t="shared" si="1"/>
         <v>1.6342957980415806E-4</v>
       </c>
       <c r="I22" t="str">
-        <f>IF(OR(G22 &gt; 0.1, H22 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2216,19 +2223,19 @@
         <v>-84.150750000000002</v>
       </c>
       <c r="G23">
-        <f>ABS((C23-E23)/E23)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1543660028584023E-2</v>
       </c>
       <c r="H23">
-        <f>ABS((D23-F23)/F23)*100</f>
+        <f t="shared" si="1"/>
         <v>3.1387717875451119E-3</v>
       </c>
       <c r="I23" t="str">
-        <f>IF(OR(G23 &gt; 0.1, H23 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2248,19 +2255,19 @@
         <v>-84.343630000000005</v>
       </c>
       <c r="G24">
-        <f>ABS((C24-E24)/E24)*100</f>
+        <f t="shared" si="0"/>
         <v>2.1110781352385545E-3</v>
       </c>
       <c r="H24">
-        <f>ABS((D24-F24)/F24)*100</f>
+        <f t="shared" si="1"/>
         <v>2.5882215408588253E-4</v>
       </c>
       <c r="I24" t="str">
-        <f>IF(OR(G24 &gt; 0.1, H24 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2280,19 +2287,19 @@
         <v>-84.412310000000005</v>
       </c>
       <c r="G25">
-        <f>ABS((C25-E25)/E25)*100</f>
+        <f t="shared" si="0"/>
         <v>9.265393236532117E-2</v>
       </c>
       <c r="H25">
-        <f>ABS((D25-F25)/F25)*100</f>
+        <f t="shared" si="1"/>
         <v>1.6297386009218609E-2</v>
       </c>
       <c r="I25" t="str">
-        <f>IF(OR(G25 &gt; 0.1, H25 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2312,19 +2319,19 @@
         <v>-84.442740000000001</v>
       </c>
       <c r="G26">
-        <f>ABS((C26-E26)/E26)*100</f>
+        <f t="shared" si="0"/>
         <v>7.1684758180669272E-3</v>
       </c>
       <c r="H26">
-        <f>ABS((D26-F26)/F26)*100</f>
+        <f t="shared" si="1"/>
         <v>2.6756592692276451E-2</v>
       </c>
       <c r="I26" t="str">
-        <f>IF(OR(G26 &gt; 0.1, H26 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2344,19 +2351,19 @@
         <v>-84.413899999999998</v>
       </c>
       <c r="G27">
-        <f>ABS((C27-E27)/E27)*100</f>
+        <f t="shared" si="0"/>
         <v>5.7090796414889913E-2</v>
       </c>
       <c r="H27">
-        <f>ABS((D27-F27)/F27)*100</f>
+        <f t="shared" si="1"/>
         <v>2.041725355654818E-3</v>
       </c>
       <c r="I27" t="str">
-        <f>IF(OR(G27 &gt; 0.1, H27 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2376,19 +2383,19 @@
         <v>-84.136650000000003</v>
       </c>
       <c r="G28">
-        <f>ABS((C28-E28)/E28)*100</f>
+        <f t="shared" si="0"/>
         <v>0.13293600169616829</v>
       </c>
       <c r="H28">
-        <f>ABS((D28-F28)/F28)*100</f>
+        <f t="shared" si="1"/>
         <v>7.7236257920905688E-2</v>
       </c>
       <c r="I28" t="str">
-        <f>IF(OR(G28 &gt; 0.1, H28 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2408,19 +2415,19 @@
         <v>-83.674279999999996</v>
       </c>
       <c r="G29">
-        <f>ABS((C29-E29)/E29)*100</f>
+        <f t="shared" si="0"/>
         <v>3.0140934008595006E-4</v>
       </c>
       <c r="H29">
-        <f>ABS((D29-F29)/F29)*100</f>
+        <f t="shared" si="1"/>
         <v>8.6705257577536238E-4</v>
       </c>
       <c r="I29" t="str">
-        <f>IF(OR(G29 &gt; 0.1, H29 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2440,19 +2447,19 @@
         <v>-84.41301</v>
       </c>
       <c r="G30">
-        <f>ABS((C30-E30)/E30)*100</f>
+        <f t="shared" si="0"/>
         <v>2.4281656546694072E-3</v>
       </c>
       <c r="H30">
-        <f>ABS((D30-F30)/F30)*100</f>
+        <f t="shared" si="1"/>
         <v>6.1672957758707636E-4</v>
       </c>
       <c r="I30" t="str">
-        <f>IF(OR(G30 &gt; 0.1, H30 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2472,19 +2479,19 @@
         <v>-84.336020000000005</v>
       </c>
       <c r="G31">
-        <f>ABS((C31-E31)/E31)*100</f>
+        <f t="shared" si="0"/>
         <v>5.4795120070124624E-3</v>
       </c>
       <c r="H31">
-        <f>ABS((D31-F31)/F31)*100</f>
+        <f t="shared" si="1"/>
         <v>3.2026647687962952E-4</v>
       </c>
       <c r="I31" t="str">
-        <f>IF(OR(G31 &gt; 0.1, H31 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2504,19 +2511,19 @@
         <v>-81.200310000000002</v>
       </c>
       <c r="G32">
-        <f>ABS((C32-E32)/E32)*100</f>
+        <f t="shared" si="0"/>
         <v>3.2324000245106885E-2</v>
       </c>
       <c r="H32">
-        <f>ABS((D32-F32)/F32)*100</f>
+        <f t="shared" si="1"/>
         <v>6.8922150666666765E-2</v>
       </c>
       <c r="I32" t="str">
-        <f>IF(OR(G32 &gt; 0.1, H32 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2536,19 +2543,19 @@
         <v>-84.36833</v>
       </c>
       <c r="G33">
-        <f>ABS((C33-E33)/E33)*100</f>
+        <f t="shared" si="0"/>
         <v>1.6730979047551899E-3</v>
       </c>
       <c r="H33">
-        <f>ABS((D33-F33)/F33)*100</f>
+        <f t="shared" si="1"/>
         <v>2.0194781620086178E-3</v>
       </c>
       <c r="I33" t="str">
-        <f>IF(OR(G33 &gt; 0.1, H33 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2568,19 +2575,19 @@
         <v>-84.196740000000005</v>
       </c>
       <c r="G34">
-        <f>ABS((C34-E34)/E34)*100</f>
+        <f t="shared" si="0"/>
         <v>2.2877180869233277E-3</v>
       </c>
       <c r="H34">
-        <f>ABS((D34-F34)/F34)*100</f>
+        <f t="shared" si="1"/>
         <v>1.7732277995518755E-3</v>
       </c>
       <c r="I34" t="str">
-        <f>IF(OR(G34 &gt; 0.1, H34 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2600,19 +2607,19 @@
         <v>-84.377690000000001</v>
       </c>
       <c r="G35">
-        <f>ABS((C35-E35)/E35)*100</f>
+        <f t="shared" ref="G35:G66" si="3">ABS((C35-E35)/E35)*100</f>
         <v>1.5912440684604114E-4</v>
       </c>
       <c r="H35">
-        <f>ABS((D35-F35)/F35)*100</f>
+        <f t="shared" ref="H35:H66" si="4">ABS((D35-F35)/F35)*100</f>
         <v>1.5450766665857094E-3</v>
       </c>
       <c r="I35" t="str">
-        <f>IF(OR(G35 &gt; 0.1, H35 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I35:I66" si="5">IF(OR(G35 &gt; 0.1, H35 &gt; 0.1), "1", "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2632,19 +2639,19 @@
         <v>-84.395949999999999</v>
       </c>
       <c r="G36">
-        <f>ABS((C36-E36)/E36)*100</f>
+        <f t="shared" si="3"/>
         <v>1.5777673043480061E-3</v>
       </c>
       <c r="H36">
-        <f>ABS((D36-F36)/F36)*100</f>
+        <f t="shared" si="4"/>
         <v>2.5103100326530564E-3</v>
       </c>
       <c r="I36" t="str">
-        <f>IF(OR(G36 &gt; 0.1, H36 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -2664,19 +2671,19 @@
         <v>-83.972830000000002</v>
       </c>
       <c r="G37">
-        <f>ABS((C37-E37)/E37)*100</f>
+        <f t="shared" si="3"/>
         <v>1.0575211699019342</v>
       </c>
       <c r="H37">
-        <f>ABS((D37-F37)/F37)*100</f>
+        <f t="shared" si="4"/>
         <v>0.10697507753401463</v>
       </c>
       <c r="I37" t="str">
-        <f>IF(OR(G37 &gt; 0.1, H37 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2696,19 +2703,19 @@
         <v>-84.427160000000001</v>
       </c>
       <c r="G38">
-        <f>ABS((C38-E38)/E38)*100</f>
+        <f t="shared" si="3"/>
         <v>1.7032352120672639E-2</v>
       </c>
       <c r="H38">
-        <f>ABS((D38-F38)/F38)*100</f>
+        <f t="shared" si="4"/>
         <v>1.0034448630032392E-2</v>
       </c>
       <c r="I38" t="str">
-        <f>IF(OR(G38 &gt; 0.1, H38 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2728,19 +2735,19 @@
         <v>-84.308729999999997</v>
       </c>
       <c r="G39">
-        <f>ABS((C39-E39)/E39)*100</f>
+        <f t="shared" si="3"/>
         <v>8.7031841831795213E-4</v>
       </c>
       <c r="H39">
-        <f>ABS((D39-F39)/F39)*100</f>
+        <f t="shared" si="4"/>
         <v>1.8782159332841426E-3</v>
       </c>
       <c r="I39" t="str">
-        <f>IF(OR(G39 &gt; 0.1, H39 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2760,19 +2767,19 @@
         <v>-84.446100000000001</v>
       </c>
       <c r="G40">
-        <f>ABS((C40-E40)/E40)*100</f>
+        <f t="shared" si="3"/>
         <v>2.648983122275534E-3</v>
       </c>
       <c r="H40">
-        <f>ABS((D40-F40)/F40)*100</f>
+        <f t="shared" si="4"/>
         <v>2.4188209994254165E-3</v>
       </c>
       <c r="I40" t="str">
-        <f>IF(OR(G40 &gt; 0.1, H40 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2792,19 +2799,19 @@
         <v>-84.456829999999997</v>
       </c>
       <c r="G41">
-        <f>ABS((C41-E41)/E41)*100</f>
+        <f t="shared" si="3"/>
         <v>9.3082452471233063E-2</v>
       </c>
       <c r="H41">
-        <f>ABS((D41-F41)/F41)*100</f>
+        <f t="shared" si="4"/>
         <v>5.0724139183283632E-4</v>
       </c>
       <c r="I41" t="str">
-        <f>IF(OR(G41 &gt; 0.1, H41 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2824,19 +2831,19 @@
         <v>-84.220079999999996</v>
       </c>
       <c r="G42">
-        <f>ABS((C42-E42)/E42)*100</f>
+        <f t="shared" si="3"/>
         <v>1.1213644786505642E-3</v>
       </c>
       <c r="H42">
-        <f>ABS((D42-F42)/F42)*100</f>
+        <f t="shared" si="4"/>
         <v>1.1826158322346203E-3</v>
       </c>
       <c r="I42" t="str">
-        <f>IF(OR(G42 &gt; 0.1, H42 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2856,19 +2863,19 @@
         <v>-84.124319999999997</v>
       </c>
       <c r="G43">
-        <f>ABS((C43-E43)/E43)*100</f>
+        <f t="shared" si="3"/>
         <v>1.1804866155567723E-3</v>
       </c>
       <c r="H43">
-        <f>ABS((D43-F43)/F43)*100</f>
+        <f t="shared" si="4"/>
         <v>1.7771317497788694E-3</v>
       </c>
       <c r="I43" t="str">
-        <f>IF(OR(G43 &gt; 0.1, H43 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -2888,19 +2895,19 @@
         <v>-84.348860000000002</v>
       </c>
       <c r="G44">
-        <f>ABS((C44-E44)/E44)*100</f>
+        <f t="shared" si="3"/>
         <v>2.7823280372397713E-3</v>
       </c>
       <c r="H44">
-        <f>ABS((D44-F44)/F44)*100</f>
+        <f t="shared" si="4"/>
         <v>6.1387907316973482E-4</v>
       </c>
       <c r="I44" t="str">
-        <f>IF(OR(G44 &gt; 0.1, H44 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -2920,19 +2927,19 @@
         <v>-84.402640000000005</v>
       </c>
       <c r="G45">
-        <f>ABS((C45-E45)/E45)*100</f>
+        <f t="shared" si="3"/>
         <v>5.3250692526853711E-4</v>
       </c>
       <c r="H45">
-        <f>ABS((D45-F45)/F45)*100</f>
+        <f t="shared" si="4"/>
         <v>1.4003116490097257E-3</v>
       </c>
       <c r="I45" t="str">
-        <f>IF(OR(G45 &gt; 0.1, H45 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2952,19 +2959,19 @@
         <v>-84.352159999999998</v>
       </c>
       <c r="G46">
-        <f>ABS((C46-E46)/E46)*100</f>
+        <f t="shared" si="3"/>
         <v>1.9307583930816264E-3</v>
       </c>
       <c r="H46">
-        <f>ABS((D46-F46)/F46)*100</f>
+        <f t="shared" si="4"/>
         <v>9.4638951747007477E-4</v>
       </c>
       <c r="I46" t="str">
-        <f>IF(OR(G46 &gt; 0.1, H46 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2984,19 +2991,19 @@
         <v>-84.397880000000001</v>
       </c>
       <c r="G47">
-        <f>ABS((C47-E47)/E47)*100</f>
+        <f t="shared" si="3"/>
         <v>4.0053412450606604E-2</v>
       </c>
       <c r="H47">
-        <f>ABS((D47-F47)/F47)*100</f>
+        <f t="shared" si="4"/>
         <v>7.0854860335281865E-3</v>
       </c>
       <c r="I47" t="str">
-        <f>IF(OR(G47 &gt; 0.1, H47 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -3016,19 +3023,19 @@
         <v>-84.37527</v>
       </c>
       <c r="G48">
-        <f>ABS((C48-E48)/E48)*100</f>
+        <f t="shared" si="3"/>
         <v>8.8877301908229912E-5</v>
       </c>
       <c r="H48">
-        <f>ABS((D48-F48)/F48)*100</f>
+        <f t="shared" si="4"/>
         <v>1.5810319777346447E-3</v>
       </c>
       <c r="I48" t="str">
-        <f>IF(OR(G48 &gt; 0.1, H48 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -3048,19 +3055,19 @@
         <v>-84.085120000000003</v>
       </c>
       <c r="G49">
-        <f>ABS((C49-E49)/E49)*100</f>
+        <f t="shared" si="3"/>
         <v>0.14772451833369699</v>
       </c>
       <c r="H49">
-        <f>ABS((D49-F49)/F49)*100</f>
+        <f t="shared" si="4"/>
         <v>7.2494871863186497E-2</v>
       </c>
       <c r="I49" t="str">
-        <f>IF(OR(G49 &gt; 0.1, H49 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -3080,19 +3087,19 @@
         <v>-84.287739999999999</v>
       </c>
       <c r="G50">
-        <f>ABS((C50-E50)/E50)*100</f>
+        <f t="shared" si="3"/>
         <v>1.882064782138406E-3</v>
       </c>
       <c r="H50">
-        <f>ABS((D50-F50)/F50)*100</f>
+        <f t="shared" si="4"/>
         <v>1.8733448067377988E-3</v>
       </c>
       <c r="I50" t="str">
-        <f>IF(OR(G50 &gt; 0.1, H50 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -3112,19 +3119,19 @@
         <v>-84.548490000000001</v>
       </c>
       <c r="G51">
-        <f>ABS((C51-E51)/E51)*100</f>
+        <f t="shared" si="3"/>
         <v>6.1687489065541758E-2</v>
       </c>
       <c r="H51">
-        <f>ABS((D51-F51)/F51)*100</f>
+        <f t="shared" si="4"/>
         <v>2.3115729210534959E-2</v>
       </c>
       <c r="I51" t="str">
-        <f>IF(OR(G51 &gt; 0.1, H51 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3144,19 +3151,19 @@
         <v>-84.436000000000007</v>
       </c>
       <c r="G52">
-        <f>ABS((C52-E52)/E52)*100</f>
+        <f t="shared" si="3"/>
         <v>2.0943997661689012E-2</v>
       </c>
       <c r="H52">
-        <f>ABS((D52-F52)/F52)*100</f>
+        <f t="shared" si="4"/>
         <v>1.0679567956784448E-2</v>
       </c>
       <c r="I52" t="str">
-        <f>IF(OR(G52 &gt; 0.1, H52 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -3176,19 +3183,19 @@
         <v>-81.065880000000007</v>
       </c>
       <c r="G53">
-        <f>ABS((C53-E53)/E53)*100</f>
+        <f t="shared" si="3"/>
         <v>8.5580417502753043E-3</v>
       </c>
       <c r="H53">
-        <f>ABS((D53-F53)/F53)*100</f>
+        <f t="shared" si="4"/>
         <v>1.7368589596484432E-3</v>
       </c>
       <c r="I53" t="str">
-        <f>IF(OR(G53 &gt; 0.1, H53 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -3208,19 +3215,19 @@
         <v>-84.169880000000006</v>
       </c>
       <c r="G54">
-        <f>ABS((C54-E54)/E54)*100</f>
+        <f t="shared" si="3"/>
         <v>8.3712702738009375E-4</v>
       </c>
       <c r="H54">
-        <f>ABS((D54-F54)/F54)*100</f>
+        <f t="shared" si="4"/>
         <v>9.5521105648248099E-4</v>
       </c>
       <c r="I54" t="str">
-        <f>IF(OR(G54 &gt; 0.1, H54 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -3240,19 +3247,19 @@
         <v>-84.506990000000002</v>
       </c>
       <c r="G55">
-        <f>ABS((C55-E55)/E55)*100</f>
+        <f t="shared" si="3"/>
         <v>1.0372062916585865E-3</v>
       </c>
       <c r="H55">
-        <f>ABS((D55-F55)/F55)*100</f>
+        <f t="shared" si="4"/>
         <v>1.4289942169289813E-3</v>
       </c>
       <c r="I55" t="str">
-        <f>IF(OR(G55 &gt; 0.1, H55 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -3272,19 +3279,19 @@
         <v>-84.011629999999997</v>
       </c>
       <c r="G56">
-        <f>ABS((C56-E56)/E56)*100</f>
+        <f t="shared" si="3"/>
         <v>6.3324920138650457E-3</v>
       </c>
       <c r="H56">
-        <f>ABS((D56-F56)/F56)*100</f>
+        <f t="shared" si="4"/>
         <v>9.5799831523310248E-3</v>
       </c>
       <c r="I56" t="str">
-        <f>IF(OR(G56 &gt; 0.1, H56 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -3304,19 +3311,19 @@
         <v>-84.348619999999997</v>
       </c>
       <c r="G57">
-        <f>ABS((C57-E57)/E57)*100</f>
+        <f t="shared" si="3"/>
         <v>5.5449647200627875E-3</v>
       </c>
       <c r="H57">
-        <f>ABS((D57-F57)/F57)*100</f>
+        <f t="shared" si="4"/>
         <v>1.1439428410323753E-3</v>
       </c>
       <c r="I57" t="str">
-        <f>IF(OR(G57 &gt; 0.1, H57 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -3336,19 +3343,19 @@
         <v>-84.460949999999997</v>
       </c>
       <c r="G58">
-        <f>ABS((C58-E58)/E58)*100</f>
+        <f t="shared" si="3"/>
         <v>1.8832258300720375E-3</v>
       </c>
       <c r="H58">
-        <f>ABS((D58-F58)/F58)*100</f>
+        <f t="shared" si="4"/>
         <v>4.1202472859049949E-4</v>
       </c>
       <c r="I58" t="str">
-        <f>IF(OR(G58 &gt; 0.1, H58 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -3368,19 +3375,19 @@
         <v>-84.41525</v>
       </c>
       <c r="G59">
-        <f>ABS((C59-E59)/E59)*100</f>
+        <f t="shared" si="3"/>
         <v>1.5134426968252614E-3</v>
       </c>
       <c r="H59">
-        <f>ABS((D59-F59)/F59)*100</f>
+        <f t="shared" si="4"/>
         <v>9.6487305315586837E-4</v>
       </c>
       <c r="I59" t="str">
-        <f>IF(OR(G59 &gt; 0.1, H59 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -3400,19 +3407,19 @@
         <v>-84.59402</v>
       </c>
       <c r="G60">
-        <f>ABS((C60-E60)/E60)*100</f>
+        <f t="shared" si="3"/>
         <v>3.0695719366008846E-4</v>
       </c>
       <c r="H60">
-        <f>ABS((D60-F60)/F60)*100</f>
+        <f t="shared" si="4"/>
         <v>3.4817472913572928E-2</v>
       </c>
       <c r="I60" t="str">
-        <f>IF(OR(G60 &gt; 0.1, H60 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -3432,19 +3439,19 @@
         <v>-84.343670000000003</v>
       </c>
       <c r="G61">
-        <f>ABS((C61-E61)/E61)*100</f>
+        <f t="shared" si="3"/>
         <v>5.237043651729605E-4</v>
       </c>
       <c r="H61">
-        <f>ABS((D61-F61)/F61)*100</f>
+        <f t="shared" si="4"/>
         <v>1.3120131006866995E-3</v>
       </c>
       <c r="I61" t="str">
-        <f>IF(OR(G61 &gt; 0.1, H61 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -3464,19 +3471,19 @@
         <v>-83.995270000000005</v>
       </c>
       <c r="G62">
-        <f>ABS((C62-E62)/E62)*100</f>
+        <f t="shared" si="3"/>
         <v>1.3041544236508393E-3</v>
       </c>
       <c r="H62">
-        <f>ABS((D62-F62)/F62)*100</f>
+        <f t="shared" si="4"/>
         <v>8.4052351994806152E-4</v>
       </c>
       <c r="I62" t="str">
-        <f>IF(OR(G62 &gt; 0.1, H62 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -3496,19 +3503,19 @@
         <v>-84.007480000000001</v>
       </c>
       <c r="G63">
-        <f>ABS((C63-E63)/E63)*100</f>
+        <f t="shared" si="3"/>
         <v>0.16870976926601849</v>
       </c>
       <c r="H63">
-        <f>ABS((D63-F63)/F63)*100</f>
+        <f t="shared" si="4"/>
         <v>7.8760843677251155E-2</v>
       </c>
       <c r="I63" t="str">
-        <f>IF(OR(G63 &gt; 0.1, H63 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -3528,19 +3535,19 @@
         <v>-84.163929999999993</v>
       </c>
       <c r="G64">
-        <f>ABS((C64-E64)/E64)*100</f>
+        <f t="shared" si="3"/>
         <v>1.6187947675085539E-3</v>
       </c>
       <c r="H64">
-        <f>ABS((D64-F64)/F64)*100</f>
+        <f t="shared" si="4"/>
         <v>4.9783796929840369E-4</v>
       </c>
       <c r="I64" t="str">
-        <f>IF(OR(G64 &gt; 0.1, H64 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -3560,19 +3567,19 @@
         <v>-84.522869999999998</v>
       </c>
       <c r="G65">
-        <f>ABS((C65-E65)/E65)*100</f>
+        <f t="shared" si="3"/>
         <v>6.1266135379500145E-4</v>
       </c>
       <c r="H65">
-        <f>ABS((D65-F65)/F65)*100</f>
+        <f t="shared" si="4"/>
         <v>1.1144912613699728E-3</v>
       </c>
       <c r="I65" t="str">
-        <f>IF(OR(G65 &gt; 0.1, H65 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -3592,19 +3599,19 @@
         <v>-84.491529999999997</v>
       </c>
       <c r="G66">
-        <f>ABS((C66-E66)/E66)*100</f>
+        <f t="shared" si="3"/>
         <v>4.6539864191666561E-4</v>
       </c>
       <c r="H66">
-        <f>ABS((D66-F66)/F66)*100</f>
+        <f t="shared" si="4"/>
         <v>1.2481724499524951E-3</v>
       </c>
       <c r="I66" t="str">
-        <f>IF(OR(G66 &gt; 0.1, H66 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -3624,19 +3631,19 @@
         <v>-84.46405</v>
       </c>
       <c r="G67">
-        <f>ABS((C67-E67)/E67)*100</f>
+        <f t="shared" ref="G67:G98" si="6">ABS((C67-E67)/E67)*100</f>
         <v>3.5733720028913217E-4</v>
       </c>
       <c r="H67">
-        <f>ABS((D67-F67)/F67)*100</f>
+        <f t="shared" ref="H67:H98" si="7">ABS((D67-F67)/F67)*100</f>
         <v>1.0101338971959767E-3</v>
       </c>
       <c r="I67" t="str">
-        <f>IF(OR(G67 &gt; 0.1, H67 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I67:I98" si="8">IF(OR(G67 &gt; 0.1, H67 &gt; 0.1), "1", "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -3656,19 +3663,19 @@
         <v>-84.406639999999996</v>
       </c>
       <c r="G68">
-        <f>ABS((C68-E68)/E68)*100</f>
+        <f t="shared" si="6"/>
         <v>1.4616718156744829E-3</v>
       </c>
       <c r="H68">
-        <f>ABS((D68-F68)/F68)*100</f>
+        <f t="shared" si="7"/>
         <v>1.3252511887667632E-3</v>
       </c>
       <c r="I68" t="str">
-        <f>IF(OR(G68 &gt; 0.1, H68 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -3688,19 +3695,19 @@
         <v>-84.30986</v>
       </c>
       <c r="G69">
-        <f>ABS((C69-E69)/E69)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2261894141139763E-3</v>
       </c>
       <c r="H69">
-        <f>ABS((D69-F69)/F69)*100</f>
+        <f t="shared" si="7"/>
         <v>1.7666972759832012E-3</v>
       </c>
       <c r="I69" t="str">
-        <f>IF(OR(G69 &gt; 0.1, H69 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -3720,19 +3727,19 @@
         <v>-83.994799999999998</v>
       </c>
       <c r="G70">
-        <f>ABS((C70-E70)/E70)*100</f>
+        <f t="shared" si="6"/>
         <v>1.0686386926695604E-3</v>
       </c>
       <c r="H70">
-        <f>ABS((D70-F70)/F70)*100</f>
+        <f t="shared" si="7"/>
         <v>1.4000866720332141E-3</v>
       </c>
       <c r="I70" t="str">
-        <f>IF(OR(G70 &gt; 0.1, H70 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -3752,19 +3759,19 @@
         <v>-84.378709999999998</v>
       </c>
       <c r="G71">
-        <f>ABS((C71-E71)/E71)*100</f>
+        <f t="shared" si="6"/>
         <v>1.422052839937716E-3</v>
       </c>
       <c r="H71">
-        <f>ABS((D71-F71)/F71)*100</f>
+        <f t="shared" si="7"/>
         <v>1.1635636524895514E-2</v>
       </c>
       <c r="I71" t="str">
-        <f>IF(OR(G71 &gt; 0.1, H71 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -3784,19 +3791,19 @@
         <v>-84.36636</v>
       </c>
       <c r="G72">
-        <f>ABS((C72-E72)/E72)*100</f>
+        <f t="shared" si="6"/>
         <v>5.038332179904504E-3</v>
       </c>
       <c r="H72">
-        <f>ABS((D72-F72)/F72)*100</f>
+        <f t="shared" si="7"/>
         <v>1.1032833465923096E-3</v>
       </c>
       <c r="I72" t="str">
-        <f>IF(OR(G72 &gt; 0.1, H72 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -3816,19 +3823,19 @@
         <v>-84.247339999999994</v>
       </c>
       <c r="G73">
-        <f>ABS((C73-E73)/E73)*100</f>
+        <f t="shared" si="6"/>
         <v>4.0541117856520625E-3</v>
       </c>
       <c r="H73">
-        <f>ABS((D73-F73)/F73)*100</f>
+        <f t="shared" si="7"/>
         <v>1.4303122211321928E-3</v>
       </c>
       <c r="I73" t="str">
-        <f>IF(OR(G73 &gt; 0.1, H73 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -3848,19 +3855,19 @@
         <v>-84.084879999999998</v>
       </c>
       <c r="G74">
-        <f>ABS((C74-E74)/E74)*100</f>
+        <f t="shared" si="6"/>
         <v>1.897834097938486E-3</v>
       </c>
       <c r="H74">
-        <f>ABS((D74-F74)/F74)*100</f>
+        <f t="shared" si="7"/>
         <v>1.6161050595536412E-3</v>
       </c>
       <c r="I74" t="str">
-        <f>IF(OR(G74 &gt; 0.1, H74 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -3880,19 +3887,19 @@
         <v>-84.415059999999997</v>
       </c>
       <c r="G75">
-        <f>ABS((C75-E75)/E75)*100</f>
+        <f t="shared" si="6"/>
         <v>1.3590500743312188E-3</v>
       </c>
       <c r="H75">
-        <f>ABS((D75-F75)/F75)*100</f>
+        <f t="shared" si="7"/>
         <v>1.3897994030883289E-3</v>
       </c>
       <c r="I75" t="str">
-        <f>IF(OR(G75 &gt; 0.1, H75 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -3912,19 +3919,19 @@
         <v>-84.24324</v>
       </c>
       <c r="G76">
-        <f>ABS((C76-E76)/E76)*100</f>
+        <f t="shared" si="6"/>
         <v>1.4123521720856235E-3</v>
       </c>
       <c r="H76">
-        <f>ABS((D76-F76)/F76)*100</f>
+        <f t="shared" si="7"/>
         <v>1.162111048911404E-3</v>
       </c>
       <c r="I76" t="str">
-        <f>IF(OR(G76 &gt; 0.1, H76 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -3944,19 +3951,19 @@
         <v>-84.380200000000002</v>
       </c>
       <c r="G77">
-        <f>ABS((C77-E77)/E77)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2400292941739841E-3</v>
       </c>
       <c r="H77">
-        <f>ABS((D77-F77)/F77)*100</f>
+        <f t="shared" si="7"/>
         <v>6.7658052481458532E-4</v>
       </c>
       <c r="I77" t="str">
-        <f>IF(OR(G77 &gt; 0.1, H77 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -3976,19 +3983,19 @@
         <v>-84.3215</v>
       </c>
       <c r="G78">
-        <f>ABS((C78-E78)/E78)*100</f>
+        <f t="shared" si="6"/>
         <v>7.0515050223624281E-4</v>
       </c>
       <c r="H78">
-        <f>ABS((D78-F78)/F78)*100</f>
+        <f t="shared" si="7"/>
         <v>1.4349839602003965E-3</v>
       </c>
       <c r="I78" t="str">
-        <f>IF(OR(G78 &gt; 0.1, H78 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4008,19 +4015,19 @@
         <v>-84.426829999999995</v>
       </c>
       <c r="G79">
-        <f>ABS((C79-E79)/E79)*100</f>
+        <f t="shared" si="6"/>
         <v>1.8790927829224842E-3</v>
       </c>
       <c r="H79">
-        <f>ABS((D79-F79)/F79)*100</f>
+        <f t="shared" si="7"/>
         <v>1.6017420054830252E-3</v>
       </c>
       <c r="I79" t="str">
-        <f>IF(OR(G79 &gt; 0.1, H79 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -4040,19 +4047,19 @@
         <v>-84.416039999999995</v>
       </c>
       <c r="G80">
-        <f>ABS((C80-E80)/E80)*100</f>
+        <f t="shared" si="6"/>
         <v>1.564190466246201E-3</v>
       </c>
       <c r="H80">
-        <f>ABS((D80-F80)/F80)*100</f>
+        <f t="shared" si="7"/>
         <v>1.8787898603194321E-3</v>
       </c>
       <c r="I80" t="str">
-        <f>IF(OR(G80 &gt; 0.1, H80 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -4072,19 +4079,19 @@
         <v>-84.348650000000006</v>
       </c>
       <c r="G81">
-        <f>ABS((C81-E81)/E81)*100</f>
+        <f t="shared" si="6"/>
         <v>5.5746200423664044E-3</v>
       </c>
       <c r="H81">
-        <f>ABS((D81-F81)/F81)*100</f>
+        <f t="shared" si="7"/>
         <v>1.1083757712661432E-3</v>
       </c>
       <c r="I81" t="str">
-        <f>IF(OR(G81 &gt; 0.1, H81 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -4104,19 +4111,19 @@
         <v>-84.470849999999999</v>
       </c>
       <c r="G82">
-        <f>ABS((C82-E82)/E82)*100</f>
+        <f t="shared" si="6"/>
         <v>2.1451399935653893E-4</v>
       </c>
       <c r="H82">
-        <f>ABS((D82-F82)/F82)*100</f>
+        <f t="shared" si="7"/>
         <v>1.0640356998913149E-3</v>
       </c>
       <c r="I82" t="str">
-        <f>IF(OR(G82 &gt; 0.1, H82 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -4136,19 +4143,19 @@
         <v>-84.287099999999995</v>
       </c>
       <c r="G83">
-        <f>ABS((C83-E83)/E83)*100</f>
+        <f t="shared" si="6"/>
         <v>3.7573303749006233E-3</v>
       </c>
       <c r="H83">
-        <f>ABS((D83-F83)/F83)*100</f>
+        <f t="shared" si="7"/>
         <v>1.4488575357191709E-3</v>
       </c>
       <c r="I83" t="str">
-        <f>IF(OR(G83 &gt; 0.1, H83 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4168,19 +4175,19 @@
         <v>-84.385419999999996</v>
       </c>
       <c r="G84">
-        <f>ABS((C84-E84)/E84)*100</f>
+        <f t="shared" si="6"/>
         <v>6.0860435122813816E-4</v>
       </c>
       <c r="H84">
-        <f>ABS((D84-F84)/F84)*100</f>
+        <f t="shared" si="7"/>
         <v>3.6968471567779214E-3</v>
       </c>
       <c r="I84" t="str">
-        <f>IF(OR(G84 &gt; 0.1, H84 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4200,19 +4207,19 @@
         <v>-84.380319999999998</v>
       </c>
       <c r="G85">
-        <f>ABS((C85-E85)/E85)*100</f>
+        <f t="shared" si="6"/>
         <v>5.4864482948791145E-4</v>
       </c>
       <c r="H85">
-        <f>ABS((D85-F85)/F85)*100</f>
+        <f t="shared" si="7"/>
         <v>1.6074838303598749E-3</v>
       </c>
       <c r="I85" t="str">
-        <f>IF(OR(G85 &gt; 0.1, H85 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -4232,19 +4239,19 @@
         <v>-84.220280000000002</v>
       </c>
       <c r="G86">
-        <f>ABS((C86-E86)/E86)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2722616195993523E-3</v>
       </c>
       <c r="H86">
-        <f>ABS((D86-F86)/F86)*100</f>
+        <f t="shared" si="7"/>
         <v>8.8458504293133277E-4</v>
       </c>
       <c r="I86" t="str">
-        <f>IF(OR(G86 &gt; 0.1, H86 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4264,19 +4271,19 @@
         <v>-84.379289999999997</v>
       </c>
       <c r="G87">
-        <f>ABS((C87-E87)/E87)*100</f>
+        <f t="shared" si="6"/>
         <v>8.4577556581594379E-4</v>
       </c>
       <c r="H87">
-        <f>ABS((D87-F87)/F87)*100</f>
+        <f t="shared" si="7"/>
         <v>2.9466946214045243E-3</v>
       </c>
       <c r="I87" t="str">
-        <f>IF(OR(G87 &gt; 0.1, H87 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -4296,19 +4303,19 @@
         <v>-84.369140000000002</v>
       </c>
       <c r="G88">
-        <f>ABS((C88-E88)/E88)*100</f>
+        <f t="shared" si="6"/>
         <v>8.1471487646263133E-4</v>
       </c>
       <c r="H88">
-        <f>ABS((D88-F88)/F88)*100</f>
+        <f t="shared" si="7"/>
         <v>2.1000569639565037E-2</v>
       </c>
       <c r="I88" t="str">
-        <f>IF(OR(G88 &gt; 0.1, H88 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -4328,19 +4335,19 @@
         <v>-84.377099999999999</v>
       </c>
       <c r="G89">
-        <f>ABS((C89-E89)/E89)*100</f>
+        <f t="shared" si="6"/>
         <v>1.7004501470141654E-3</v>
       </c>
       <c r="H89">
-        <f>ABS((D89-F89)/F89)*100</f>
+        <f t="shared" si="7"/>
         <v>3.3680939496700626E-3</v>
       </c>
       <c r="I89" t="str">
-        <f>IF(OR(G89 &gt; 0.1, H89 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -4360,19 +4367,19 @@
         <v>-84.370949999999993</v>
       </c>
       <c r="G90">
-        <f>ABS((C90-E90)/E90)*100</f>
+        <f t="shared" si="6"/>
         <v>4.997184060789227E-3</v>
       </c>
       <c r="H90">
-        <f>ABS((D90-F90)/F90)*100</f>
+        <f t="shared" si="7"/>
         <v>1.5455556681590462E-3</v>
       </c>
       <c r="I90" t="str">
-        <f>IF(OR(G90 &gt; 0.1, H90 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -4392,19 +4399,19 @@
         <v>-84.444270000000003</v>
       </c>
       <c r="G91">
-        <f>ABS((C91-E91)/E91)*100</f>
+        <f t="shared" si="6"/>
         <v>3.9543172839989335E-3</v>
       </c>
       <c r="H91">
-        <f>ABS((D91-F91)/F91)*100</f>
+        <f t="shared" si="7"/>
         <v>6.0300124566914099E-4</v>
       </c>
       <c r="I91" t="str">
-        <f>IF(OR(G91 &gt; 0.1, H91 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -4424,19 +4431,19 @@
         <v>-84.214349999999996</v>
       </c>
       <c r="G92">
-        <f>ABS((C92-E92)/E92)*100</f>
+        <f t="shared" si="6"/>
         <v>9.5265962151320485E-4</v>
       </c>
       <c r="H92">
-        <f>ABS((D92-F92)/F92)*100</f>
+        <f t="shared" si="7"/>
         <v>2.9187424708547773E-3</v>
       </c>
       <c r="I92" t="str">
-        <f>IF(OR(G92 &gt; 0.1, H92 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4456,19 +4463,19 @@
         <v>-84.378910000000005</v>
       </c>
       <c r="G93">
-        <f>ABS((C93-E93)/E93)*100</f>
+        <f t="shared" si="6"/>
         <v>9.2285276751321406E-4</v>
       </c>
       <c r="H93">
-        <f>ABS((D93-F93)/F93)*100</f>
+        <f t="shared" si="7"/>
         <v>2.455471396809965E-3</v>
       </c>
       <c r="I93" t="str">
-        <f>IF(OR(G93 &gt; 0.1, H93 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -4488,19 +4495,19 @@
         <v>-81.247399999999999</v>
       </c>
       <c r="G94">
-        <f>ABS((C94-E94)/E94)*100</f>
+        <f t="shared" si="6"/>
         <v>2.8429428226098979E-3</v>
       </c>
       <c r="H94">
-        <f>ABS((D94-F94)/F94)*100</f>
+        <f t="shared" si="7"/>
         <v>1.2308086166858221E-4</v>
       </c>
       <c r="I94" t="str">
-        <f>IF(OR(G94 &gt; 0.1, H94 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -4520,19 +4527,19 @@
         <v>-84.353369999999998</v>
       </c>
       <c r="G95">
-        <f>ABS((C95-E95)/E95)*100</f>
+        <f t="shared" si="6"/>
         <v>2.8950251449488926E-4</v>
       </c>
       <c r="H95">
-        <f>ABS((D95-F95)/F95)*100</f>
+        <f t="shared" si="7"/>
         <v>1.411917508459609E-3</v>
       </c>
       <c r="I95" t="str">
-        <f>IF(OR(G95 &gt; 0.1, H95 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -4552,19 +4559,19 @@
         <v>-84.415350000000004</v>
       </c>
       <c r="G96">
-        <f>ABS((C96-E96)/E96)*100</f>
+        <f t="shared" si="6"/>
         <v>0.13084692476988991</v>
       </c>
       <c r="H96">
-        <f>ABS((D96-F96)/F96)*100</f>
+        <f t="shared" si="7"/>
         <v>1.9898039870706978E-2</v>
       </c>
       <c r="I96" t="str">
-        <f>IF(OR(G96 &gt; 0.1, H96 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -4584,19 +4591,19 @@
         <v>-84.302610000000001</v>
       </c>
       <c r="G97">
-        <f>ABS((C97-E97)/E97)*100</f>
+        <f t="shared" si="6"/>
         <v>3.3852814237437016E-4</v>
       </c>
       <c r="H97">
-        <f>ABS((D97-F97)/F97)*100</f>
+        <f t="shared" si="7"/>
         <v>3.3650203712520849E-3</v>
       </c>
       <c r="I97" t="str">
-        <f>IF(OR(G97 &gt; 0.1, H97 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -4616,19 +4623,19 @@
         <v>-84.305009999999996</v>
       </c>
       <c r="G98">
-        <f>ABS((C98-E98)/E98)*100</f>
+        <f t="shared" si="6"/>
         <v>9.9977361379751913E-4</v>
       </c>
       <c r="H98">
-        <f>ABS((D98-F98)/F98)*100</f>
+        <f t="shared" si="7"/>
         <v>9.8440175737999898E-4</v>
       </c>
       <c r="I98" t="str">
-        <f>IF(OR(G98 &gt; 0.1, H98 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -4648,19 +4655,19 @@
         <v>-84.44323</v>
       </c>
       <c r="G99">
-        <f>ABS((C99-E99)/E99)*100</f>
+        <f t="shared" ref="G99:G130" si="9">ABS((C99-E99)/E99)*100</f>
         <v>5.6123780820979891E-4</v>
       </c>
       <c r="H99">
-        <f>ABS((D99-F99)/F99)*100</f>
+        <f t="shared" ref="H99:H130" si="10">ABS((D99-F99)/F99)*100</f>
         <v>1.5519302139466182E-3</v>
       </c>
       <c r="I99" t="str">
-        <f>IF(OR(G99 &gt; 0.1, H99 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I99:I130" si="11">IF(OR(G99 &gt; 0.1, H99 &gt; 0.1), "1", "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -4680,19 +4687,19 @@
         <v>-84.187889999999996</v>
       </c>
       <c r="G100">
-        <f>ABS((C100-E100)/E100)*100</f>
+        <f t="shared" si="9"/>
         <v>8.8844406345051141E-2</v>
       </c>
       <c r="H100">
-        <f>ABS((D100-F100)/F100)*100</f>
+        <f t="shared" si="10"/>
         <v>3.9765814299422809E-2</v>
       </c>
       <c r="I100" t="str">
-        <f>IF(OR(G100 &gt; 0.1, H100 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -4712,19 +4719,19 @@
         <v>-81.094480000000004</v>
       </c>
       <c r="G101">
-        <f>ABS((C101-E101)/E101)*100</f>
+        <f t="shared" si="9"/>
         <v>1.6845147237991922E-5</v>
       </c>
       <c r="H101">
-        <f>ABS((D101-F101)/F101)*100</f>
+        <f t="shared" si="10"/>
         <v>1.2905933918006794E-3</v>
       </c>
       <c r="I101" t="str">
-        <f>IF(OR(G101 &gt; 0.1, H101 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -4744,19 +4751,19 @@
         <v>-84.419340000000005</v>
       </c>
       <c r="G102">
-        <f>ABS((C102-E102)/E102)*100</f>
+        <f t="shared" si="9"/>
         <v>1.4999471912051766E-3</v>
       </c>
       <c r="H102">
-        <f>ABS((D102-F102)/F102)*100</f>
+        <f t="shared" si="10"/>
         <v>1.4326101104241819E-3</v>
       </c>
       <c r="I102" t="str">
-        <f>IF(OR(G102 &gt; 0.1, H102 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -4776,19 +4783,19 @@
         <v>-84.278409999999994</v>
       </c>
       <c r="G103">
-        <f>ABS((C103-E103)/E103)*100</f>
+        <f t="shared" si="9"/>
         <v>1.2956205892288469E-3</v>
       </c>
       <c r="H103">
-        <f>ABS((D103-F103)/F103)*100</f>
+        <f t="shared" si="10"/>
         <v>1.7581015114064968E-3</v>
       </c>
       <c r="I103" t="str">
-        <f>IF(OR(G103 &gt; 0.1, H103 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -4808,19 +4815,19 @@
         <v>-84.520169999999993</v>
       </c>
       <c r="G104">
-        <f>ABS((C104-E104)/E104)*100</f>
+        <f t="shared" si="9"/>
         <v>4.6350277097233564E-4</v>
       </c>
       <c r="H104">
-        <f>ABS((D104-F104)/F104)*100</f>
+        <f t="shared" si="10"/>
         <v>5.4737230178387832E-3</v>
       </c>
       <c r="I104" t="str">
-        <f>IF(OR(G104 &gt; 0.1, H104 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -4840,19 +4847,19 @@
         <v>-84.448580000000007</v>
       </c>
       <c r="G105">
-        <f>ABS((C105-E105)/E105)*100</f>
+        <f t="shared" si="9"/>
         <v>3.4761151545592132E-3</v>
       </c>
       <c r="H105">
-        <f>ABS((D105-F105)/F105)*100</f>
+        <f t="shared" si="10"/>
         <v>4.5033320866865953E-4</v>
       </c>
       <c r="I105" t="str">
-        <f>IF(OR(G105 &gt; 0.1, H105 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -4872,19 +4879,19 @@
         <v>-84.413110000000003</v>
       </c>
       <c r="G106">
-        <f>ABS((C106-E106)/E106)*100</f>
+        <f t="shared" si="9"/>
         <v>5.5835224837379269E-4</v>
       </c>
       <c r="H106">
-        <f>ABS((D106-F106)/F106)*100</f>
+        <f t="shared" si="10"/>
         <v>1.1953119604244684E-3</v>
       </c>
       <c r="I106" t="str">
-        <f>IF(OR(G106 &gt; 0.1, H106 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -4904,19 +4911,19 @@
         <v>-84.398219999999995</v>
       </c>
       <c r="G107">
-        <f>ABS((C107-E107)/E107)*100</f>
+        <f t="shared" si="9"/>
         <v>2.622241646140408E-4</v>
       </c>
       <c r="H107">
-        <f>ABS((D107-F107)/F107)*100</f>
+        <f t="shared" si="10"/>
         <v>1.3163784733952256E-3</v>
       </c>
       <c r="I107" t="str">
-        <f>IF(OR(G107 &gt; 0.1, H107 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -4936,19 +4943,19 @@
         <v>-83.643929999999997</v>
       </c>
       <c r="G108">
-        <f>ABS((C108-E108)/E108)*100</f>
+        <f t="shared" si="9"/>
         <v>1.2886488014586461E-3</v>
       </c>
       <c r="H108">
-        <f>ABS((D108-F108)/F108)*100</f>
+        <f t="shared" si="10"/>
         <v>1.9353466533707907E-3</v>
       </c>
       <c r="I108" t="str">
-        <f>IF(OR(G108 &gt; 0.1, H108 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -4968,19 +4975,19 @@
         <v>-84.62603</v>
       </c>
       <c r="G109">
-        <f>ABS((C109-E109)/E109)*100</f>
+        <f t="shared" si="9"/>
         <v>3.9667154336371132E-3</v>
       </c>
       <c r="H109">
-        <f>ABS((D109-F109)/F109)*100</f>
+        <f t="shared" si="10"/>
         <v>3.5828337923919269E-2</v>
       </c>
       <c r="I109" t="str">
-        <f>IF(OR(G109 &gt; 0.1, H109 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -5000,19 +5007,19 @@
         <v>-84.401420000000002</v>
       </c>
       <c r="G110">
-        <f>ABS((C110-E110)/E110)*100</f>
+        <f t="shared" si="9"/>
         <v>6.8149157761667581E-5</v>
       </c>
       <c r="H110">
-        <f>ABS((D110-F110)/F110)*100</f>
+        <f t="shared" si="10"/>
         <v>2.6967555759169828E-3</v>
       </c>
       <c r="I110" t="str">
-        <f>IF(OR(G110 &gt; 0.1, H110 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -5032,19 +5039,19 @@
         <v>-84.415520000000001</v>
       </c>
       <c r="G111">
-        <f>ABS((C111-E111)/E111)*100</f>
+        <f t="shared" si="9"/>
         <v>5.8767009900739656E-4</v>
       </c>
       <c r="H111">
-        <f>ABS((D111-F111)/F111)*100</f>
+        <f t="shared" si="10"/>
         <v>1.133085480017081E-3</v>
       </c>
       <c r="I111" t="str">
-        <f>IF(OR(G111 &gt; 0.1, H111 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -5064,19 +5071,19 @@
         <v>-84.356639999999999</v>
       </c>
       <c r="G112">
-        <f>ABS((C112-E112)/E112)*100</f>
+        <f t="shared" si="9"/>
         <v>2.9400870657263369E-4</v>
       </c>
       <c r="H112">
-        <f>ABS((D112-F112)/F112)*100</f>
+        <f t="shared" si="10"/>
         <v>2.9025575224426361E-3</v>
       </c>
       <c r="I112" t="str">
-        <f>IF(OR(G112 &gt; 0.1, H112 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -5096,19 +5103,19 @@
         <v>-84.422658183984794</v>
       </c>
       <c r="G113">
-        <f>ABS((C113-E113)/E113)*100</f>
+        <f t="shared" si="9"/>
         <v>2.8729286047647911E-4</v>
       </c>
       <c r="H113">
-        <f>ABS((D113-F113)/F113)*100</f>
+        <f t="shared" si="10"/>
         <v>2.0470335680704534E-4</v>
       </c>
       <c r="I113" t="str">
-        <f>IF(OR(G113 &gt; 0.1, H113 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -5128,19 +5135,19 @@
         <v>-84.271820803396395</v>
       </c>
       <c r="G114">
-        <f>ABS((C114-E114)/E114)*100</f>
+        <f t="shared" si="9"/>
         <v>1.5213117099784244E-4</v>
       </c>
       <c r="H114">
-        <f>ABS((D114-F114)/F114)*100</f>
+        <f t="shared" si="10"/>
         <v>1.6906047392986007E-3</v>
       </c>
       <c r="I114" t="str">
-        <f>IF(OR(G114 &gt; 0.1, H114 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -5160,19 +5167,19 @@
         <v>-84.424417514261805</v>
       </c>
       <c r="G115">
-        <f>ABS((C115-E115)/E115)*100</f>
+        <f t="shared" si="9"/>
         <v>1.6307270835737245E-3</v>
       </c>
       <c r="H115">
-        <f>ABS((D115-F115)/F115)*100</f>
+        <f t="shared" si="10"/>
         <v>1.3327218015072976E-4</v>
       </c>
       <c r="I115" t="str">
-        <f>IF(OR(G115 &gt; 0.1, H115 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -5192,19 +5199,19 @@
         <v>-84.507503923593106</v>
       </c>
       <c r="G116">
-        <f>ABS((C116-E116)/E116)*100</f>
+        <f t="shared" si="9"/>
         <v>2.3230578718052394E-3</v>
       </c>
       <c r="H116">
-        <f>ABS((D116-F116)/F116)*100</f>
+        <f t="shared" si="10"/>
         <v>2.4947322228112298E-4</v>
       </c>
       <c r="I116" t="str">
-        <f>IF(OR(G116 &gt; 0.1, H116 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -5224,19 +5231,19 @@
         <v>-84.280802192699795</v>
       </c>
       <c r="G117">
-        <f>ABS((C117-E117)/E117)*100</f>
+        <f t="shared" si="9"/>
         <v>6.8394002753719749E-2</v>
       </c>
       <c r="H117">
-        <f>ABS((D117-F117)/F117)*100</f>
+        <f t="shared" si="10"/>
         <v>1.3440554676146858E-2</v>
       </c>
       <c r="I117" t="str">
-        <f>IF(OR(G117 &gt; 0.1, H117 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -5256,19 +5263,19 @@
         <v>-84.361581711463998</v>
       </c>
       <c r="G118">
-        <f>ABS((C118-E118)/E118)*100</f>
+        <f t="shared" si="9"/>
         <v>2.7948673217938242E-3</v>
       </c>
       <c r="H118">
-        <f>ABS((D118-F118)/F118)*100</f>
+        <f t="shared" si="10"/>
         <v>2.4938903673461159E-4</v>
       </c>
       <c r="I118" t="str">
-        <f>IF(OR(G118 &gt; 0.1, H118 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -5288,19 +5295,19 @@
         <v>-84.103828275874804</v>
       </c>
       <c r="G119">
-        <f>ABS((C119-E119)/E119)*100</f>
+        <f t="shared" si="9"/>
         <v>3.0722573097501593E-2</v>
       </c>
       <c r="H119">
-        <f>ABS((D119-F119)/F119)*100</f>
+        <f t="shared" si="10"/>
         <v>1.2501542546088101E-2</v>
       </c>
       <c r="I119" t="str">
-        <f>IF(OR(G119 &gt; 0.1, H119 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -5320,19 +5327,19 @@
         <v>-84.403251048525703</v>
       </c>
       <c r="G120">
-        <f>ABS((C120-E120)/E120)*100</f>
+        <f t="shared" si="9"/>
         <v>1.944134405475634E-5</v>
       </c>
       <c r="H120">
-        <f>ABS((D120-F120)/F120)*100</f>
+        <f t="shared" si="10"/>
         <v>1.8306728835001083E-5</v>
       </c>
       <c r="I120" t="str">
-        <f>IF(OR(G120 &gt; 0.1, H120 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -5352,19 +5359,19 @@
         <v>-84.337683551164801</v>
       </c>
       <c r="G121">
-        <f>ABS((C121-E121)/E121)*100</f>
+        <f t="shared" si="9"/>
         <v>0.12178511708265684</v>
       </c>
       <c r="H121">
-        <f>ABS((D121-F121)/F121)*100</f>
+        <f t="shared" si="10"/>
         <v>5.269240189391701E-2</v>
       </c>
       <c r="I121" t="str">
-        <f>IF(OR(G121 &gt; 0.1, H121 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -5384,19 +5391,19 @@
         <v>-84.407942484965702</v>
       </c>
       <c r="G122">
-        <f>ABS((C122-E122)/E122)*100</f>
+        <f t="shared" si="9"/>
         <v>4.9918095172955899E-4</v>
       </c>
       <c r="H122">
-        <f>ABS((D122-F122)/F122)*100</f>
+        <f t="shared" si="10"/>
         <v>2.8494360508216716E-4</v>
       </c>
       <c r="I122" t="str">
-        <f>IF(OR(G122 &gt; 0.1, H122 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -5416,19 +5423,19 @@
         <v>-84.475835680909498</v>
       </c>
       <c r="G123">
-        <f>ABS((C123-E123)/E123)*100</f>
+        <f t="shared" si="9"/>
         <v>4.9393344881611394E-4</v>
       </c>
       <c r="H123">
-        <f>ABS((D123-F123)/F123)*100</f>
+        <f t="shared" si="10"/>
         <v>2.5360140840602371E-3</v>
       </c>
       <c r="I123" t="str">
-        <f>IF(OR(G123 &gt; 0.1, H123 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -5448,19 +5455,19 @@
         <v>-84.524050889648706</v>
       </c>
       <c r="G124">
-        <f>ABS((C124-E124)/E124)*100</f>
+        <f t="shared" si="9"/>
         <v>0.18093692075131998</v>
       </c>
       <c r="H124">
-        <f>ABS((D124-F124)/F124)*100</f>
+        <f t="shared" si="10"/>
         <v>1.9336377606945634E-2</v>
       </c>
       <c r="I124" t="str">
-        <f>IF(OR(G124 &gt; 0.1, H124 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -5480,19 +5487,19 @@
         <v>-84.490673262222401</v>
       </c>
       <c r="G125">
-        <f>ABS((C125-E125)/E125)*100</f>
+        <f t="shared" si="9"/>
         <v>4.0334653032053896E-3</v>
       </c>
       <c r="H125">
-        <f>ABS((D125-F125)/F125)*100</f>
+        <f t="shared" si="10"/>
         <v>1.9697585048710723E-3</v>
       </c>
       <c r="I125" t="str">
-        <f>IF(OR(G125 &gt; 0.1, H125 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -5512,19 +5519,19 @@
         <v>-84.578215129450498</v>
       </c>
       <c r="G126">
-        <f>ABS((C126-E126)/E126)*100</f>
+        <f t="shared" si="9"/>
         <v>2.7004134635096304E-2</v>
       </c>
       <c r="H126">
-        <f>ABS((D126-F126)/F126)*100</f>
+        <f t="shared" si="10"/>
         <v>9.9794171964164333E-2</v>
       </c>
       <c r="I126" t="str">
-        <f>IF(OR(G126 &gt; 0.1, H126 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -5544,19 +5551,19 @@
         <v>-84.280593927537396</v>
       </c>
       <c r="G127">
-        <f>ABS((C127-E127)/E127)*100</f>
+        <f t="shared" si="9"/>
         <v>6.2320623096986049E-4</v>
       </c>
       <c r="H127">
-        <f>ABS((D127-F127)/F127)*100</f>
+        <f t="shared" si="10"/>
         <v>8.3320193259012556E-4</v>
       </c>
       <c r="I127" t="str">
-        <f>IF(OR(G127 &gt; 0.1, H127 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -5576,24 +5583,24 @@
         <v>-84.408456543993907</v>
       </c>
       <c r="G128">
-        <f>ABS((C128-E128)/E128)*100</f>
+        <f t="shared" si="9"/>
         <v>2.849316720878553E-4</v>
       </c>
       <c r="H128">
-        <f>ABS((D128-F128)/F128)*100</f>
+        <f t="shared" si="10"/>
         <v>1.4045993236113914E-5</v>
       </c>
       <c r="I128" t="str">
-        <f>IF(OR(G128 &gt; 0.1, H128 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>360</v>
+      </c>
+      <c r="B129" t="s">
         <v>255</v>
-      </c>
-      <c r="B129" t="s">
-        <v>256</v>
       </c>
       <c r="C129">
         <v>33.754378000000003</v>
@@ -5608,24 +5615,24 @@
         <v>-84.3717588804424</v>
       </c>
       <c r="G129">
-        <f>ABS((C129-E129)/E129)*100</f>
+        <f t="shared" si="9"/>
         <v>1.2601191969679838E-4</v>
       </c>
       <c r="H129">
-        <f>ABS((D129-F129)/F129)*100</f>
+        <f t="shared" si="10"/>
         <v>4.0786106887207886E-4</v>
       </c>
       <c r="I129" t="str">
-        <f>IF(OR(G129 &gt; 0.1, H129 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C130">
         <v>33.525095999999998</v>
@@ -5640,24 +5647,24 @@
         <v>-84.353865249571498</v>
       </c>
       <c r="G130">
-        <f>ABS((C130-E130)/E130)*100</f>
+        <f t="shared" si="9"/>
         <v>1.4789860135471019E-3</v>
       </c>
       <c r="H130">
-        <f>ABS((D130-F130)/F130)*100</f>
+        <f t="shared" si="10"/>
         <v>2.8777629546657591E-4</v>
       </c>
       <c r="I130" t="str">
-        <f>IF(OR(G130 &gt; 0.1, H130 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
         <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
       </c>
       <c r="C131">
         <v>34.0066214</v>
@@ -5672,24 +5679,24 @@
         <v>-84.133531243633897</v>
       </c>
       <c r="G131">
-        <f>ABS((C131-E131)/E131)*100</f>
+        <f t="shared" ref="G131:G162" si="12">ABS((C131-E131)/E131)*100</f>
         <v>0.14936452057835684</v>
       </c>
       <c r="H131">
-        <f>ABS((D131-F131)/F131)*100</f>
+        <f t="shared" ref="H131:H162" si="13">ABS((D131-F131)/F131)*100</f>
         <v>5.0095075938343323E-2</v>
       </c>
       <c r="I131" t="str">
-        <f>IF(OR(G131 &gt; 0.1, H131 &gt; 0.1), "1", "0")</f>
+        <f t="shared" ref="I131:I162" si="14">IF(OR(G131 &gt; 0.1, H131 &gt; 0.1), "1", "0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
         <v>260</v>
-      </c>
-      <c r="B132" t="s">
-        <v>261</v>
       </c>
       <c r="C132">
         <v>33.743516</v>
@@ -5704,24 +5711,24 @@
         <v>-84.438000669177995</v>
       </c>
       <c r="G132">
-        <f>ABS((C132-E132)/E132)*100</f>
+        <f t="shared" si="12"/>
         <v>6.7902383353639752E-4</v>
       </c>
       <c r="H132">
-        <f>ABS((D132-F132)/F132)*100</f>
+        <f t="shared" si="13"/>
         <v>6.6712643073915944E-5</v>
       </c>
       <c r="I132" t="str">
-        <f>IF(OR(G132 &gt; 0.1, H132 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" t="s">
         <v>262</v>
-      </c>
-      <c r="B133" t="s">
-        <v>263</v>
       </c>
       <c r="C133">
         <v>33.772205399999997</v>
@@ -5736,24 +5743,24 @@
         <v>-84.352611590877004</v>
       </c>
       <c r="G133">
-        <f>ABS((C133-E133)/E133)*100</f>
+        <f t="shared" si="12"/>
         <v>4.6600501452339295E-5</v>
       </c>
       <c r="H133">
-        <f>ABS((D133-F133)/F133)*100</f>
+        <f t="shared" si="13"/>
         <v>1.1227764168075783E-4</v>
       </c>
       <c r="I133" t="str">
-        <f>IF(OR(G133 &gt; 0.1, H133 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
         <v>264</v>
-      </c>
-      <c r="B134" t="s">
-        <v>265</v>
       </c>
       <c r="C134">
         <v>33.738167799999999</v>
@@ -5768,24 +5775,24 @@
         <v>-84.416548984338107</v>
       </c>
       <c r="G134">
-        <f>ABS((C134-E134)/E134)*100</f>
+        <f t="shared" si="12"/>
         <v>4.1029170277485087E-4</v>
       </c>
       <c r="H134">
-        <f>ABS((D134-F134)/F134)*100</f>
+        <f t="shared" si="13"/>
         <v>1.3249516205866089E-2</v>
       </c>
       <c r="I134" t="str">
-        <f>IF(OR(G134 &gt; 0.1, H134 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
         <v>266</v>
-      </c>
-      <c r="B135" t="s">
-        <v>267</v>
       </c>
       <c r="C135">
         <v>33.876629000000001</v>
@@ -5800,24 +5807,24 @@
         <v>-84.327268148643796</v>
       </c>
       <c r="G135">
-        <f>ABS((C135-E135)/E135)*100</f>
+        <f t="shared" si="12"/>
         <v>0.10067914389523046</v>
       </c>
       <c r="H135">
-        <f>ABS((D135-F135)/F135)*100</f>
+        <f t="shared" si="13"/>
         <v>4.0347742065852579E-2</v>
       </c>
       <c r="I135" t="str">
-        <f>IF(OR(G135 &gt; 0.1, H135 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
         <v>268</v>
-      </c>
-      <c r="B136" t="s">
-        <v>269</v>
       </c>
       <c r="C136">
         <v>33.886471999999998</v>
@@ -5832,24 +5839,24 @@
         <v>-84.265556343979995</v>
       </c>
       <c r="G136">
-        <f>ABS((C136-E136)/E136)*100</f>
+        <f t="shared" si="12"/>
         <v>6.681939487915942E-4</v>
       </c>
       <c r="H136">
-        <f>ABS((D136-F136)/F136)*100</f>
+        <f t="shared" si="13"/>
         <v>6.2618232514557786E-4</v>
       </c>
       <c r="I136" t="str">
-        <f>IF(OR(G136 &gt; 0.1, H136 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
         <v>270</v>
-      </c>
-      <c r="B137" t="s">
-        <v>271</v>
       </c>
       <c r="C137">
         <v>33.736809000000001</v>
@@ -5864,24 +5871,24 @@
         <v>-84.385400830511998</v>
       </c>
       <c r="G137">
-        <f>ABS((C137-E137)/E137)*100</f>
+        <f t="shared" si="12"/>
         <v>3.803370549130438E-4</v>
       </c>
       <c r="H137">
-        <f>ABS((D137-F137)/F137)*100</f>
+        <f t="shared" si="13"/>
         <v>1.9454726337303862E-4</v>
       </c>
       <c r="I137" t="str">
-        <f>IF(OR(G137 &gt; 0.1, H137 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
         <v>272</v>
-      </c>
-      <c r="B138" t="s">
-        <v>273</v>
       </c>
       <c r="C138">
         <v>33.747542000000003</v>
@@ -5896,24 +5903,24 @@
         <v>-84.333687909299798</v>
       </c>
       <c r="G138">
-        <f>ABS((C138-E138)/E138)*100</f>
+        <f t="shared" si="12"/>
         <v>8.3217802229936519E-4</v>
       </c>
       <c r="H138">
-        <f>ABS((D138-F138)/F138)*100</f>
+        <f t="shared" si="13"/>
         <v>4.5307007160696095E-4</v>
       </c>
       <c r="I138" t="str">
-        <f>IF(OR(G138 &gt; 0.1, H138 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
         <v>274</v>
-      </c>
-      <c r="B139" t="s">
-        <v>275</v>
       </c>
       <c r="C139">
         <v>33.472682599999999</v>
@@ -5928,24 +5935,24 @@
         <v>-81.958537641365197</v>
       </c>
       <c r="G139">
-        <f>ABS((C139-E139)/E139)*100</f>
+        <f t="shared" si="12"/>
         <v>1.6356547448788965E-3</v>
       </c>
       <c r="H139">
-        <f>ABS((D139-F139)/F139)*100</f>
+        <f t="shared" si="13"/>
         <v>5.6841360787602342E-6</v>
       </c>
       <c r="I139" t="str">
-        <f>IF(OR(G139 &gt; 0.1, H139 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C140">
         <v>33.781856400000002</v>
@@ -5960,24 +5967,24 @@
         <v>-84.404911553372699</v>
       </c>
       <c r="G140">
-        <f>ABS((C140-E140)/E140)*100</f>
+        <f t="shared" si="12"/>
         <v>4.0376547483399268E-5</v>
       </c>
       <c r="H140">
-        <f>ABS((D140-F140)/F140)*100</f>
+        <f t="shared" si="13"/>
         <v>1.4554440617894112E-4</v>
       </c>
       <c r="I140" t="str">
-        <f>IF(OR(G140 &gt; 0.1, H140 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" t="s">
         <v>276</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
       </c>
       <c r="C141">
         <v>33.8284533</v>
@@ -5992,24 +5999,24 @@
         <v>-84.329008207488499</v>
       </c>
       <c r="G141">
-        <f>ABS((C141-E141)/E141)*100</f>
+        <f t="shared" si="12"/>
         <v>5.0326467529749953E-5</v>
       </c>
       <c r="H141">
-        <f>ABS((D141-F141)/F141)*100</f>
+        <f t="shared" si="13"/>
         <v>6.1079205824759216E-5</v>
       </c>
       <c r="I141" t="str">
-        <f>IF(OR(G141 &gt; 0.1, H141 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C142">
         <v>33.531801000000002</v>
@@ -6024,24 +6031,24 @@
         <v>-84.365505744877197</v>
       </c>
       <c r="G142">
-        <f>ABS((C142-E142)/E142)*100</f>
+        <f t="shared" si="12"/>
         <v>1.4039584191485403E-2</v>
       </c>
       <c r="H142">
-        <f>ABS((D142-F142)/F142)*100</f>
+        <f t="shared" si="13"/>
         <v>2.1640892934558639E-3</v>
       </c>
       <c r="I142" t="str">
-        <f>IF(OR(G142 &gt; 0.1, H142 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C143">
         <v>33.583321099999999</v>
@@ -6056,24 +6063,24 @@
         <v>-84.410977882245902</v>
       </c>
       <c r="G143">
-        <f>ABS((C143-E143)/E143)*100</f>
+        <f t="shared" si="12"/>
         <v>6.2385372596087084E-3</v>
       </c>
       <c r="H143">
-        <f>ABS((D143-F143)/F143)*100</f>
+        <f t="shared" si="13"/>
         <v>4.3183690467570593E-4</v>
       </c>
       <c r="I143" t="str">
-        <f>IF(OR(G143 &gt; 0.1, H143 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C144">
         <v>33.750441799999997</v>
@@ -6088,24 +6095,24 @@
         <v>-84.364364940299893</v>
       </c>
       <c r="G144">
-        <f>ABS((C144-E144)/E144)*100</f>
+        <f t="shared" si="12"/>
         <v>3.8215210049961107E-5</v>
       </c>
       <c r="H144">
-        <f>ABS((D144-F144)/F144)*100</f>
+        <f t="shared" si="13"/>
         <v>2.5673991768027993E-5</v>
       </c>
       <c r="I144" t="str">
-        <f>IF(OR(G144 &gt; 0.1, H144 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C145">
         <v>33.738387400000001</v>
@@ -6120,24 +6127,24 @@
         <v>-84.422450424016006</v>
       </c>
       <c r="G145">
-        <f>ABS((C145-E145)/E145)*100</f>
+        <f t="shared" si="12"/>
         <v>2.6760069480086918E-4</v>
       </c>
       <c r="H145">
-        <f>ABS((D145-F145)/F145)*100</f>
+        <f t="shared" si="13"/>
         <v>4.6465837230241644E-4</v>
       </c>
       <c r="I145" t="str">
-        <f>IF(OR(G145 &gt; 0.1, H145 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C146">
         <v>33.773077000000001</v>
@@ -6152,24 +6159,24 @@
         <v>-84.034415866977398</v>
       </c>
       <c r="G146">
-        <f>ABS((C146-E146)/E146)*100</f>
+        <f t="shared" si="12"/>
         <v>0.19182395549294712</v>
       </c>
       <c r="H146">
-        <f>ABS((D146-F146)/F146)*100</f>
+        <f t="shared" si="13"/>
         <v>1.4283591905491557E-2</v>
       </c>
       <c r="I146" t="str">
-        <f>IF(OR(G146 &gt; 0.1, H146 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C147">
         <v>33.740399099999998</v>
@@ -6184,24 +6191,24 @@
         <v>-84.345989600036603</v>
       </c>
       <c r="G147">
-        <f>ABS((C147-E147)/E147)*100</f>
+        <f t="shared" si="12"/>
         <v>2.1683395104473579E-4</v>
       </c>
       <c r="H147">
-        <f>ABS((D147-F147)/F147)*100</f>
+        <f t="shared" si="13"/>
         <v>1.6704998550161597E-4</v>
       </c>
       <c r="I147" t="str">
-        <f>IF(OR(G147 &gt; 0.1, H147 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C148">
         <v>33.800226000000002</v>
@@ -6216,24 +6223,24 @@
         <v>-84.487228273146698</v>
       </c>
       <c r="G148">
-        <f>ABS((C148-E148)/E148)*100</f>
+        <f t="shared" si="12"/>
         <v>0.14454420322510964</v>
       </c>
       <c r="H148">
-        <f>ABS((D148-F148)/F148)*100</f>
+        <f t="shared" si="13"/>
         <v>0.10502329755667256</v>
       </c>
       <c r="I148" t="str">
-        <f>IF(OR(G148 &gt; 0.1, H148 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C149">
         <v>33.722276600000001</v>
@@ -6248,24 +6255,24 @@
         <v>-84.462498621905098</v>
       </c>
       <c r="G149">
-        <f>ABS((C149-E149)/E149)*100</f>
+        <f t="shared" si="12"/>
         <v>7.447454954807872E-5</v>
       </c>
       <c r="H149">
-        <f>ABS((D149-F149)/F149)*100</f>
+        <f t="shared" si="13"/>
         <v>3.963663809653891E-5</v>
       </c>
       <c r="I149" t="str">
-        <f>IF(OR(G149 &gt; 0.1, H149 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C150">
         <v>33.740657200000001</v>
@@ -6280,24 +6287,24 @@
         <v>-84.360905434652494</v>
       </c>
       <c r="G150">
-        <f>ABS((C150-E150)/E150)*100</f>
+        <f t="shared" si="12"/>
         <v>1.5956825971306465E-4</v>
       </c>
       <c r="H150">
-        <f>ABS((D150-F150)/F150)*100</f>
+        <f t="shared" si="13"/>
         <v>1.2602583412604624E-3</v>
       </c>
       <c r="I150" t="str">
-        <f>IF(OR(G150 &gt; 0.1, H150 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C151">
         <v>33.945991999999997</v>
@@ -6312,24 +6319,24 @@
         <v>-84.241271530244006</v>
       </c>
       <c r="G151">
-        <f>ABS((C151-E151)/E151)*100</f>
+        <f t="shared" si="12"/>
         <v>2.3583187495409619E-4</v>
       </c>
       <c r="H151">
-        <f>ABS((D151-F151)/F151)*100</f>
+        <f t="shared" si="13"/>
         <v>5.4110085914807829E-4</v>
       </c>
       <c r="I151" t="str">
-        <f>IF(OR(G151 &gt; 0.1, H151 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C152">
         <v>33.754531</v>
@@ -6344,24 +6351,24 @@
         <v>-84.379166776725498</v>
       </c>
       <c r="G152">
-        <f>ABS((C152-E152)/E152)*100</f>
+        <f t="shared" si="12"/>
         <v>1.7338567236201182E-4</v>
       </c>
       <c r="H152">
-        <f>ABS((D152-F152)/F152)*100</f>
+        <f t="shared" si="13"/>
         <v>1.1919615865256776E-4</v>
       </c>
       <c r="I152" t="str">
-        <f>IF(OR(G152 &gt; 0.1, H152 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C153">
         <v>33.663263899999997</v>
@@ -6376,24 +6383,24 @@
         <v>-84.446439803450403</v>
       </c>
       <c r="G153">
-        <f>ABS((C153-E153)/E153)*100</f>
+        <f t="shared" si="12"/>
         <v>9.3092112594043229E-5</v>
       </c>
       <c r="H153">
-        <f>ABS((D153-F153)/F153)*100</f>
+        <f t="shared" si="13"/>
         <v>1.3428221468872982E-4</v>
       </c>
       <c r="I153" t="str">
-        <f>IF(OR(G153 &gt; 0.1, H153 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C154">
         <v>33.781421299999998</v>
@@ -6408,24 +6415,24 @@
         <v>-84.386616934408295</v>
       </c>
       <c r="G154">
-        <f>ABS((C154-E154)/E154)*100</f>
+        <f t="shared" si="12"/>
         <v>1.2953902471894408E-3</v>
       </c>
       <c r="H154">
-        <f>ABS((D154-F154)/F154)*100</f>
+        <f t="shared" si="13"/>
         <v>1.6854160569146285E-3</v>
       </c>
       <c r="I154" t="str">
-        <f>IF(OR(G154 &gt; 0.1, H154 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C155">
         <v>33.650859400000002</v>
@@ -6440,24 +6447,24 @@
         <v>-84.449807984753505</v>
       </c>
       <c r="G155">
-        <f>ABS((C155-E155)/E155)*100</f>
+        <f t="shared" si="12"/>
         <v>3.5744841256170432E-4</v>
       </c>
       <c r="H155">
-        <f>ABS((D155-F155)/F155)*100</f>
+        <f t="shared" si="13"/>
         <v>8.5054634302202115E-4</v>
       </c>
       <c r="I155" t="str">
-        <f>IF(OR(G155 &gt; 0.1, H155 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C156">
         <v>33.758375299999997</v>
@@ -6472,24 +6479,24 @@
         <v>-84.390431807790307</v>
       </c>
       <c r="G156">
-        <f>ABS((C156-E156)/E156)*100</f>
+        <f t="shared" si="12"/>
         <v>1.4601148554088027E-4</v>
       </c>
       <c r="H156">
-        <f>ABS((D156-F156)/F156)*100</f>
+        <f t="shared" si="13"/>
         <v>2.6552524772357448E-5</v>
       </c>
       <c r="I156" t="str">
-        <f>IF(OR(G156 &gt; 0.1, H156 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C157">
         <v>33.7859281</v>
@@ -6504,24 +6511,24 @@
         <v>-84.400768294743401</v>
       </c>
       <c r="G157">
-        <f>ABS((C157-E157)/E157)*100</f>
+        <f t="shared" si="12"/>
         <v>3.6785645175480228E-5</v>
       </c>
       <c r="H157">
-        <f>ABS((D157-F157)/F157)*100</f>
+        <f t="shared" si="13"/>
         <v>1.1055024555286285E-4</v>
       </c>
       <c r="I157" t="str">
-        <f>IF(OR(G157 &gt; 0.1, H157 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C158">
         <v>33.810287700000003</v>
@@ -6536,24 +6543,24 @@
         <v>-84.416261247602407</v>
       </c>
       <c r="G158">
-        <f>ABS((C158-E158)/E158)*100</f>
+        <f t="shared" si="12"/>
         <v>7.4852327134747399E-5</v>
       </c>
       <c r="H158">
-        <f>ABS((D158-F158)/F158)*100</f>
+        <f t="shared" si="13"/>
         <v>2.0463782670868632E-4</v>
       </c>
       <c r="I158" t="str">
-        <f>IF(OR(G158 &gt; 0.1, H158 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C159">
         <v>33.809074000000003</v>
@@ -6568,24 +6575,24 @@
         <v>-84.393703175998695</v>
       </c>
       <c r="G159">
-        <f>ABS((C159-E159)/E159)*100</f>
+        <f t="shared" si="12"/>
         <v>1.0619963281410526E-2</v>
       </c>
       <c r="H159">
-        <f>ABS((D159-F159)/F159)*100</f>
+        <f t="shared" si="13"/>
         <v>8.6757183431721962E-4</v>
       </c>
       <c r="I159" t="str">
-        <f>IF(OR(G159 &gt; 0.1, H159 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C160">
         <v>33.755504299999998</v>
@@ -6600,24 +6607,24 @@
         <v>-84.365373843272806</v>
       </c>
       <c r="G160">
-        <f>ABS((C160-E160)/E160)*100</f>
+        <f t="shared" si="12"/>
         <v>2.7861555826746982E-3</v>
       </c>
       <c r="H160">
-        <f>ABS((D160-F160)/F160)*100</f>
+        <f t="shared" si="13"/>
         <v>2.071427165311122E-4</v>
       </c>
       <c r="I160" t="str">
-        <f>IF(OR(G160 &gt; 0.1, H160 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161">
         <v>33.602426999999999</v>
@@ -6632,24 +6639,24 @@
         <v>-84.472912914330706</v>
       </c>
       <c r="G161">
-        <f>ABS((C161-E161)/E161)*100</f>
+        <f t="shared" si="12"/>
         <v>2.758292160791521E-3</v>
       </c>
       <c r="H161">
-        <f>ABS((D161-F161)/F161)*100</f>
+        <f t="shared" si="13"/>
         <v>9.3747723783130655E-4</v>
       </c>
       <c r="I161" t="str">
-        <f>IF(OR(G161 &gt; 0.1, H161 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C162">
         <v>33.484462000000001</v>
@@ -6664,24 +6671,24 @@
         <v>-84.639502050885199</v>
       </c>
       <c r="G162">
-        <f>ABS((C162-E162)/E162)*100</f>
+        <f t="shared" si="12"/>
         <v>0.32476856847593355</v>
       </c>
       <c r="H162">
-        <f>ABS((D162-F162)/F162)*100</f>
+        <f t="shared" si="13"/>
         <v>5.0921248475768325E-3</v>
       </c>
       <c r="I162" t="str">
-        <f>IF(OR(G162 &gt; 0.1, H162 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C163">
         <v>33.653759399999998</v>
@@ -6696,24 +6703,24 @@
         <v>-84.449694660543003</v>
       </c>
       <c r="G163">
-        <f>ABS((C163-E163)/E163)*100</f>
+        <f t="shared" ref="G163:G182" si="15">ABS((C163-E163)/E163)*100</f>
         <v>3.6621981172514961E-6</v>
       </c>
       <c r="H163">
-        <f>ABS((D163-F163)/F163)*100</f>
+        <f t="shared" ref="H163:H182" si="16">ABS((D163-F163)/F163)*100</f>
         <v>1.2772164947461135E-4</v>
       </c>
       <c r="I163" t="str">
-        <f>IF(OR(G163 &gt; 0.1, H163 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I163:I194" si="17">IF(OR(G163 &gt; 0.1, H163 &gt; 0.1), "1", "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C164">
         <v>33.767305999999998</v>
@@ -6728,24 +6735,24 @@
         <v>-84.252656610030797</v>
       </c>
       <c r="G164">
-        <f>ABS((C164-E164)/E164)*100</f>
+        <f t="shared" si="15"/>
         <v>1.8742469478030396E-3</v>
       </c>
       <c r="H164">
-        <f>ABS((D164-F164)/F164)*100</f>
+        <f t="shared" si="16"/>
         <v>2.8294653105264967E-4</v>
       </c>
       <c r="I164" t="str">
-        <f>IF(OR(G164 &gt; 0.1, H164 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C165">
         <v>33.826422999999998</v>
@@ -6760,24 +6767,24 @@
         <v>-84.106823016821906</v>
       </c>
       <c r="G165">
-        <f>ABS((C165-E165)/E165)*100</f>
+        <f t="shared" si="15"/>
         <v>4.2037159868661456E-4</v>
       </c>
       <c r="H165">
-        <f>ABS((D165-F165)/F165)*100</f>
+        <f t="shared" si="16"/>
         <v>9.2384516978399032E-4</v>
       </c>
       <c r="I165" t="str">
-        <f>IF(OR(G165 &gt; 0.1, H165 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C166">
         <v>33.746398999999997</v>
@@ -6792,24 +6799,24 @@
         <v>-84.748202136069906</v>
       </c>
       <c r="G166">
-        <f>ABS((C166-E166)/E166)*100</f>
+        <f t="shared" si="15"/>
         <v>1.4360562545590917E-2</v>
       </c>
       <c r="H166">
-        <f>ABS((D166-F166)/F166)*100</f>
+        <f t="shared" si="16"/>
         <v>1.4384805367922209E-2</v>
       </c>
       <c r="I166" t="str">
-        <f>IF(OR(G166 &gt; 0.1, H166 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C167">
         <v>33.7865605</v>
@@ -6824,24 +6831,24 @@
         <v>-84.398581573693804</v>
       </c>
       <c r="G167">
-        <f>ABS((C167-E167)/E167)*100</f>
+        <f t="shared" si="15"/>
         <v>7.0855397114520647E-4</v>
       </c>
       <c r="H167">
-        <f>ABS((D167-F167)/F167)*100</f>
+        <f t="shared" si="16"/>
         <v>7.8169197369695189E-5</v>
       </c>
       <c r="I167" t="str">
-        <f>IF(OR(G167 &gt; 0.1, H167 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C168">
         <v>33.807989999999997</v>
@@ -6856,24 +6863,24 @@
         <v>-84.3561487238956</v>
       </c>
       <c r="G168">
-        <f>ABS((C168-E168)/E168)*100</f>
+        <f t="shared" si="15"/>
         <v>6.6590249872124904E-2</v>
       </c>
       <c r="H168">
-        <f>ABS((D168-F168)/F168)*100</f>
+        <f t="shared" si="16"/>
         <v>6.9914570364089448E-3</v>
       </c>
       <c r="I168" t="str">
-        <f>IF(OR(G168 &gt; 0.1, H168 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C169">
         <v>33.651388300000001</v>
@@ -6888,24 +6895,24 @@
         <v>-84.449778517739205</v>
       </c>
       <c r="G169">
-        <f>ABS((C169-E169)/E169)*100</f>
+        <f t="shared" si="15"/>
         <v>1.8458853520177858E-4</v>
       </c>
       <c r="H169">
-        <f>ABS((D169-F169)/F169)*100</f>
+        <f t="shared" si="16"/>
         <v>8.6467691451679409E-4</v>
       </c>
       <c r="I169" t="str">
-        <f>IF(OR(G169 &gt; 0.1, H169 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C170">
         <v>33.782835599999999</v>
@@ -6920,24 +6927,24 @@
         <v>-84.380355048065994</v>
       </c>
       <c r="G170">
-        <f>ABS((C170-E170)/E170)*100</f>
+        <f t="shared" si="15"/>
         <v>7.4737037488298611E-4</v>
       </c>
       <c r="H170">
-        <f>ABS((D170-F170)/F170)*100</f>
+        <f t="shared" si="16"/>
         <v>1.2703809238512108E-3</v>
       </c>
       <c r="I170" t="str">
-        <f>IF(OR(G170 &gt; 0.1, H170 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C171">
         <v>33.777701800000003</v>
@@ -6952,24 +6959,24 @@
         <v>-84.409014179275403</v>
       </c>
       <c r="G171">
-        <f>ABS((C171-E171)/E171)*100</f>
+        <f t="shared" si="15"/>
         <v>1.7949321253532145E-5</v>
       </c>
       <c r="H171">
-        <f>ABS((D171-F171)/F171)*100</f>
+        <f t="shared" si="16"/>
         <v>4.2506449992628977E-5</v>
       </c>
       <c r="I171" t="str">
-        <f>IF(OR(G171 &gt; 0.1, H171 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C172">
         <v>33.7395864</v>
@@ -6984,24 +6991,24 @@
         <v>-84.413577628501002</v>
       </c>
       <c r="G172">
-        <f>ABS((C172-E172)/E172)*100</f>
+        <f t="shared" si="15"/>
         <v>1.1689124359760576E-3</v>
       </c>
       <c r="H172">
-        <f>ABS((D172-F172)/F172)*100</f>
+        <f t="shared" si="16"/>
         <v>4.7465290567054707E-4</v>
       </c>
       <c r="I172" t="str">
-        <f>IF(OR(G172 &gt; 0.1, H172 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C173">
         <v>33.923588000000002</v>
@@ -7016,24 +7023,24 @@
         <v>-84.315887835580696</v>
       </c>
       <c r="G173">
-        <f>ABS((C173-E173)/E173)*100</f>
+        <f t="shared" si="15"/>
         <v>7.0274164721439757E-3</v>
       </c>
       <c r="H173">
-        <f>ABS((D173-F173)/F173)*100</f>
+        <f t="shared" si="16"/>
         <v>2.4350860460749992E-3</v>
       </c>
       <c r="I173" t="str">
-        <f>IF(OR(G173 &gt; 0.1, H173 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C174">
         <v>33.774696400000003</v>
@@ -7048,24 +7055,24 @@
         <v>-84.406613433238306</v>
       </c>
       <c r="G174">
-        <f>ABS((C174-E174)/E174)*100</f>
+        <f t="shared" si="15"/>
         <v>5.7608448524687505E-5</v>
       </c>
       <c r="H174">
-        <f>ABS((D174-F174)/F174)*100</f>
+        <f t="shared" si="16"/>
         <v>1.8770239897977412E-4</v>
       </c>
       <c r="I174" t="str">
-        <f>IF(OR(G174 &gt; 0.1, H174 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C175">
         <v>33.680609699999998</v>
@@ -7080,24 +7087,24 @@
         <v>-84.401635762722407</v>
       </c>
       <c r="G175">
-        <f>ABS((C175-E175)/E175)*100</f>
+        <f t="shared" si="15"/>
         <v>2.5052805947827214E-5</v>
       </c>
       <c r="H175">
-        <f>ABS((D175-F175)/F175)*100</f>
+        <f t="shared" si="16"/>
         <v>2.6507514676936572E-6</v>
       </c>
       <c r="I175" t="str">
-        <f>IF(OR(G175 &gt; 0.1, H175 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C176">
         <v>33.9585376</v>
@@ -7112,24 +7119,24 @@
         <v>-83.367338685100805</v>
       </c>
       <c r="G176">
-        <f>ABS((C176-E176)/E176)*100</f>
+        <f t="shared" si="15"/>
         <v>2.0026972332910187E-4</v>
       </c>
       <c r="H176">
-        <f>ABS((D176-F176)/F176)*100</f>
+        <f t="shared" si="16"/>
         <v>2.0493758199988262E-5</v>
       </c>
       <c r="I176" t="str">
-        <f>IF(OR(G176 &gt; 0.1, H176 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C177">
         <v>33.950010599999999</v>
@@ -7144,24 +7151,24 @@
         <v>-84.127023761957105</v>
       </c>
       <c r="G177">
-        <f>ABS((C177-E177)/E177)*100</f>
+        <f t="shared" si="15"/>
         <v>6.3615545946941543E-4</v>
       </c>
       <c r="H177">
-        <f>ABS((D177-F177)/F177)*100</f>
+        <f t="shared" si="16"/>
         <v>3.6880177526407075E-4</v>
       </c>
       <c r="I177" t="str">
-        <f>IF(OR(G177 &gt; 0.1, H177 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C178">
         <v>33.550077000000002</v>
@@ -7176,24 +7183,24 @@
         <v>-84.300216503986405</v>
       </c>
       <c r="G178">
-        <f>ABS((C178-E178)/E178)*100</f>
+        <f t="shared" si="15"/>
         <v>6.2018630937181463E-3</v>
       </c>
       <c r="H178">
-        <f>ABS((D178-F178)/F178)*100</f>
+        <f t="shared" si="16"/>
         <v>8.8961859143677959E-3</v>
       </c>
       <c r="I178" t="str">
-        <f>IF(OR(G178 &gt; 0.1, H178 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C179">
         <v>33.6102116</v>
@@ -7208,24 +7215,24 @@
         <v>-84.470866196790496</v>
       </c>
       <c r="G179">
-        <f>ABS((C179-E179)/E179)*100</f>
+        <f t="shared" si="15"/>
         <v>5.1787960584551584E-6</v>
       </c>
       <c r="H179">
-        <f>ABS((D179-F179)/F179)*100</f>
+        <f t="shared" si="16"/>
         <v>2.462007486191719E-5</v>
       </c>
       <c r="I179" t="str">
-        <f>IF(OR(G179 &gt; 0.1, H179 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C180">
         <v>33.859588000000002</v>
@@ -7240,24 +7247,24 @@
         <v>-84.309084469218504</v>
       </c>
       <c r="G180">
-        <f>ABS((C180-E180)/E180)*100</f>
+        <f t="shared" si="15"/>
         <v>2.7880715355593794E-3</v>
       </c>
       <c r="H180">
-        <f>ABS((D180-F180)/F180)*100</f>
+        <f t="shared" si="16"/>
         <v>1.2934914290223662E-3</v>
       </c>
       <c r="I180" t="str">
-        <f>IF(OR(G180 &gt; 0.1, H180 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C181">
         <v>33.846677</v>
@@ -7272,24 +7279,24 @@
         <v>-84.504253281730797</v>
       </c>
       <c r="G181">
-        <f>ABS((C181-E181)/E181)*100</f>
+        <f t="shared" si="15"/>
         <v>2.9072410149830973E-3</v>
       </c>
       <c r="H181">
-        <f>ABS((D181-F181)/F181)*100</f>
+        <f t="shared" si="16"/>
         <v>7.7950901123420764E-4</v>
       </c>
       <c r="I181" t="str">
-        <f>IF(OR(G181 &gt; 0.1, H181 &gt; 0.1), "1", "0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C182">
         <v>33.765948999999999</v>
@@ -7304,15 +7311,15 @@
         <v>-84.398950338481697</v>
       </c>
       <c r="G182">
-        <f>ABS((C182-E182)/E182)*100</f>
+        <f t="shared" si="15"/>
         <v>4.068355477780386E-2</v>
       </c>
       <c r="H182">
-        <f>ABS((D182-F182)/F182)*100</f>
+        <f t="shared" si="16"/>
         <v>8.3535855048135974E-3</v>
       </c>
       <c r="I182" t="str">
-        <f>IF(OR(G182 &gt; 0.1, H182 &gt; 0.1), "1", "0")</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7323,7 +7330,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:D2 A7:D8 D3 B4:D4 B5:D5 A6:B6 D6 A182 D182 B181:D181 C180:D180 B179:D179 B178:D178 C177:D177 B176:C176 B175:C175 C174:D174 B173:C173 B172:D172 B171:D171 B170:D170 C169 B168:D168 A167:D167 B166:D166 B165:D165 B164:D164 B163:D163 B162:D162 A159:D161 B158:D158 B157:D157 A156:D156 B155:D155 A154:D154 B153:D153 A149:D152 B148:D148 B147:D147 A146:D146 B145:D145 A144:D144 B143:D143 A142:D142 B141:D141 A140:D140 B139:D139 B138:D138 B137:D137 A136:D136 B135:D135 A129:D134 B128:D128 A124:D127 B123:D123 B122:D122 B121:D121 B120:D120 B119:D119 A116:D118 B115:D115 A114:D114 B113:D113 A10:D112 B9:D9" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:D2 B7:D8 D3 B4:D4 B5:D5 B6 D6 D182 B181:D181 C180:D180 B179:D179 B178:D178 C177:D177 B176:C176 B175:C175 C174:D174 B173:C173 B172:D172 B171:D171 B170:D170 C169 B168:D168 B167:D167 B166:D166 B165:D165 B164:D164 B163:D163 B162:D162 B159:D161 B158:D158 B157:D157 B156:D156 B155:D155 B154:D154 B153:D153 B149:D152 B148:D148 B147:D147 B146:D146 B145:D145 B144:D144 B143:D143 B142:D142 B141:D141 B140:D140 B139:D139 B138:D138 B137:D137 B136:D136 B135:D135 B129:D134 B128:D128 B124:D127 B123:D123 B122:D122 B121:D121 B120:D120 B119:D119 B116:D118 B115:D115 B114:D114 B113:D113 B10:D112 B9:D9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>